--- a/Mekanisk produktanalyse/Projekt 2/databehandling backup.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling backup.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6339DAD8-418D-4C68-BD13-FF345FF3F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AFB6C0-5426-41F1-A55C-A0724F9916B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Målinger med rampe" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Ark1'!$Q$153</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -236,6 +237,27 @@
   </si>
   <si>
     <t>Gennemsnitselastik</t>
+  </si>
+  <si>
+    <t>Antal elastikker</t>
+  </si>
+  <si>
+    <t>Hoplængde [cm]</t>
+  </si>
+  <si>
+    <t>Lille rampe</t>
+  </si>
+  <si>
+    <t>Enkelløkke elastik 5</t>
+  </si>
+  <si>
+    <t>Dobbeltløkke elastik 3</t>
+  </si>
+  <si>
+    <t>Dobbelt kraft</t>
+  </si>
+  <si>
+    <t>Dobbelt forlængelse</t>
   </si>
 </sst>
 </file>
@@ -437,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -461,6 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5051,6 +5076,1687 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D242-4510-BDFA-4E8AC6BF4031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.73850054665814191"/>
+          <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Typisk Enkeltløkke vs Dobbeltløkke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enkeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$S$6:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$Q$6:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-071D-4284-9839-9A7B8415E3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dobbeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$K$39:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$39:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-071D-4284-9839-9A7B8415E3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.73850054665814191"/>
+          <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Typisk Enkeltløkke (dobbelt kraft) vs </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dobbeltløkke (dobbelt forlængelse)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enkeltløkke med dobbelt kraft</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$S$6:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AH$39:$AH$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FC0-4354-8F85-7AA4D87E4358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dobbeltløkke med dobbelt forlængelse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AI$39:$AI$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$39:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FC0-4354-8F85-7AA4D87E4358}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5593,6 +7299,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7658,6 +9444,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8359,16 +11177,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>64201</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>37046</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>53376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>197551</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>41809</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>186727</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8397,16 +11215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>40079</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>56232</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>950366</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>72035</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109258</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>590499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67046</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8435,23 +11253,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163439</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>31956</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53026</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A058547-2258-408A-ADF0-2981EACA6524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8466,6 +11284,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19482</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9535,10 +12429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE186"/>
+  <dimension ref="A1:AI186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="V69" sqref="V69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9549,15 +12443,17 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -9593,7 +12489,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9642,11 +12538,11 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -9705,7 +12601,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -9769,8 +12665,14 @@
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
+      <c r="AG6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -9834,8 +12736,10 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="26"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -9899,8 +12803,14 @@
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -9964,8 +12874,14 @@
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
+      <c r="AG9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -10027,14 +12943,14 @@
         <f t="shared" si="5"/>
         <v>337.6</v>
       </c>
-      <c r="AB10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>44</v>
+      <c r="AG10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10096,10 +13012,14 @@
         <f t="shared" si="5"/>
         <v>335.4</v>
       </c>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="24"/>
+      <c r="AG11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10161,14 +13081,14 @@
         <f t="shared" si="5"/>
         <v>332.4</v>
       </c>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>44</v>
+      <c r="AG12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -10230,14 +13150,8 @@
         <f t="shared" si="5"/>
         <v>329.2</v>
       </c>
-      <c r="AB13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>63</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -10299,14 +13213,8 @@
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
-      <c r="AB14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>47</v>
-      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -10368,14 +13276,8 @@
         <f t="shared" si="5"/>
         <v>320.39999999999998</v>
       </c>
-      <c r="AB15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>58</v>
-      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -10437,14 +13339,8 @@
         <f t="shared" si="5"/>
         <v>314.39999999999998</v>
       </c>
-      <c r="AB16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>50</v>
-      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -10506,10 +13402,8 @@
         <f t="shared" si="5"/>
         <v>309.2</v>
       </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10564,10 +13458,8 @@
         <f>SUM(C18,G18,K18,O18,S18)/4</f>
         <v>304.75</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10622,10 +13514,8 @@
         <f>SUM(C19,G19,K19,O19,S19)/4</f>
         <v>297.25</v>
       </c>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -10687,10 +13577,8 @@
         <f t="shared" si="5"/>
         <v>282</v>
       </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2.5</v>
       </c>
@@ -10752,10 +13640,8 @@
         <f t="shared" si="5"/>
         <v>239.6</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -10804,7 +13690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -10860,7 +13746,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1.5</v>
       </c>
@@ -10923,7 +13809,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -10979,7 +13865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -11042,7 +13928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11098,7 +13984,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -11154,7 +14040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>0.5</v>
       </c>
@@ -11217,7 +14103,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.25</v>
       </c>
@@ -11280,7 +14166,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -11343,13 +14229,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -11384,8 +14270,14 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
+      <c r="AH35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI35" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -11433,8 +14325,18 @@
         <f>(SUM(C36+G36+K36+O36+S36)/5)</f>
         <v>60.1</v>
       </c>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH37" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI37" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -11490,8 +14392,10 @@
       <c r="U38" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -11553,8 +14457,16 @@
         <f>SUM(C39,G39,K39,O39,S39)/5</f>
         <v>105.7</v>
       </c>
+      <c r="AH39" s="3">
+        <f>Q6*2</f>
+        <v>30</v>
+      </c>
+      <c r="AI39" s="3">
+        <f>K39*2</f>
+        <v>222</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -11613,11 +14525,19 @@
         <v>14</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" ref="U40:U50" si="13">SUM(C40,G40,K40,O40,S40)/5</f>
+        <f t="shared" ref="U40:U49" si="13">SUM(C40,G40,K40,O40,S40)/5</f>
         <v>104.9</v>
       </c>
+      <c r="AH40" s="3">
+        <f>Q7*2</f>
+        <v>28</v>
+      </c>
+      <c r="AI40" s="3">
+        <f t="shared" ref="AI40:AI64" si="14">K40*2</f>
+        <v>221</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -11679,8 +14599,16 @@
         <f t="shared" si="13"/>
         <v>104.1</v>
       </c>
+      <c r="AH41" s="3">
+        <f t="shared" ref="AH41:AH64" si="15">Q8*2</f>
+        <v>26</v>
+      </c>
+      <c r="AI41" s="3">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -11742,8 +14670,16 @@
         <f t="shared" si="13"/>
         <v>103.1</v>
       </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -11805,8 +14741,16 @@
         <f t="shared" si="13"/>
         <v>101.9</v>
       </c>
+      <c r="AH43" s="3">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="AI43" s="3">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -11868,8 +14812,16 @@
         <f t="shared" si="13"/>
         <v>100.3</v>
       </c>
+      <c r="AH44" s="3">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="AI44" s="3">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -11931,8 +14883,16 @@
         <f t="shared" si="13"/>
         <v>98.6</v>
       </c>
+      <c r="AH45" s="3">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="AI45" s="3">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -11994,8 +14954,16 @@
         <f t="shared" si="13"/>
         <v>96.1</v>
       </c>
+      <c r="AH46" s="3">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="AI46" s="3">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -12057,8 +15025,16 @@
         <f t="shared" si="13"/>
         <v>91.8</v>
       </c>
+      <c r="AH47" s="3">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="AI47" s="3">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -12120,8 +15096,16 @@
         <f t="shared" si="13"/>
         <v>84.2</v>
       </c>
+      <c r="AH48" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AI48" s="3">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -12183,8 +15167,16 @@
         <f t="shared" si="13"/>
         <v>69.2</v>
       </c>
+      <c r="AH49" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AI49" s="3">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>4.5</v>
       </c>
@@ -12246,8 +15238,16 @@
         <f>SUM(C50,G50,K50,O50,S50)/5</f>
         <v>59.6</v>
       </c>
+      <c r="AH50" s="3">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AI50" s="3">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>4.25</v>
       </c>
@@ -12309,8 +15309,16 @@
         <f>SUM(C51,G51,K51,O51,S51)/4</f>
         <v>67.875</v>
       </c>
+      <c r="AH51" s="3">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AI51" s="3">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -12372,8 +15380,16 @@
         <f>SUM(C52,G52,K52,O52,S52)/4</f>
         <v>60.125</v>
       </c>
+      <c r="AH52" s="3">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AI52" s="3">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3.75</v>
       </c>
@@ -12432,11 +15448,19 @@
         <v>3</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" ref="U53:U54" si="14">SUM(C53,G53,K53,O53,S53)/5</f>
+        <f t="shared" ref="U53:U54" si="16">SUM(C53,G53,K53,O53,S53)/5</f>
         <v>41.6</v>
       </c>
+      <c r="AH53" s="3">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AI53" s="3">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3.5</v>
       </c>
@@ -12495,11 +15519,19 @@
         <v>2.5</v>
       </c>
       <c r="U54" s="15">
+        <f t="shared" si="16"/>
+        <v>38.9</v>
+      </c>
+      <c r="AH54" s="3">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AI54" s="3">
         <f t="shared" si="14"/>
-        <v>38.9</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3.25</v>
       </c>
@@ -12561,8 +15593,16 @@
         <f>SUM(C55,G55,K55,O55,S55)/4</f>
         <v>42.5</v>
       </c>
+      <c r="AH55" s="3">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="AI55" s="3">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12621,11 +15661,19 @@
         <v>2</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" ref="U56:U57" si="15">SUM(C56,G56,K56,O56,S56)/5</f>
+        <f t="shared" ref="U56:U57" si="17">SUM(C56,G56,K56,O56,S56)/5</f>
         <v>29.4</v>
       </c>
+      <c r="AH56" s="3">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AI56" s="3">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2.75</v>
       </c>
@@ -12684,11 +15732,19 @@
         <v>1.75</v>
       </c>
       <c r="U57" s="15">
+        <f t="shared" si="17"/>
+        <v>25.7</v>
+      </c>
+      <c r="AH57" s="3">
         <f t="shared" si="15"/>
-        <v>25.7</v>
+        <v>3.5</v>
+      </c>
+      <c r="AI57" s="3">
+        <f t="shared" si="14"/>
+        <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2.5</v>
       </c>
@@ -12750,8 +15806,16 @@
         <f>SUM(C58,G58,K58,O58,S58)/4</f>
         <v>28.5</v>
       </c>
+      <c r="AH58" s="3">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AI58" s="3">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2.25</v>
       </c>
@@ -12810,11 +15874,19 @@
         <v>1.25</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" ref="U59" si="16">SUM(C59,G59,K59,O59,S59)/5</f>
+        <f t="shared" ref="U59" si="18">SUM(C59,G59,K59,O59,S59)/5</f>
         <v>20.6</v>
       </c>
+      <c r="AH59" s="3">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI59" s="3">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -12876,8 +15948,16 @@
         <f>SUM(C60,G60,K60,O60,S60)/4</f>
         <v>21.75</v>
       </c>
+      <c r="AH60" s="3">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AI60" s="3">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1.5</v>
       </c>
@@ -12939,8 +16019,16 @@
         <f>SUM(C61,G61,K61,O61,S61)/4</f>
         <v>15.25</v>
       </c>
+      <c r="AH61" s="3">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI61" s="3">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -12999,11 +16087,19 @@
         <v>0.5</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" ref="U62:U64" si="17">SUM(C62,G62,K62,O62,S62)/5</f>
+        <f t="shared" ref="U62:U64" si="19">SUM(C62,G62,K62,O62,S62)/5</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="AH62" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI62" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0.5</v>
       </c>
@@ -13062,11 +16158,19 @@
         <v>0.25</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
+      <c r="AH63" s="3">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI63" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -13125,15 +16229,23 @@
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="23"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -13282,7 +16394,7 @@
         <v>561</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ref="G72:G91" si="18">F72-$F$90</f>
+        <f t="shared" ref="G72:G91" si="20">F72-$F$90</f>
         <v>89</v>
       </c>
     </row>
@@ -13294,7 +16406,7 @@
         <v>543</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C78" si="19">B73-$B$78</f>
+        <f t="shared" ref="C73:C78" si="21">B73-$B$78</f>
         <v>53</v>
       </c>
       <c r="D73" s="3"/>
@@ -13305,7 +16417,7 @@
         <v>560</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="P73" t="s">
@@ -13320,7 +16432,7 @@
         <v>539</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>49</v>
       </c>
       <c r="D74" s="3"/>
@@ -13331,7 +16443,7 @@
         <v>559</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="Q74" t="s">
@@ -13361,7 +16473,7 @@
         <v>537</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="D75" s="3"/>
@@ -13372,7 +16484,7 @@
         <v>559</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="P75" t="s">
@@ -13420,7 +16532,7 @@
         <v>531</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="D76" s="3"/>
@@ -13431,7 +16543,7 @@
         <v>558</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="P76" t="s">
@@ -13482,7 +16594,7 @@
         <v>500</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D77" s="3"/>
@@ -13493,7 +16605,7 @@
         <v>556</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="P77">
@@ -13516,7 +16628,7 @@
         <v>490</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D78" s="3"/>
@@ -13527,18 +16639,18 @@
         <v>554</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>82</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
       <c r="Q78">
-        <f t="shared" ref="Q78:Q97" si="20">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+        <f t="shared" ref="Q78:Q97" si="22">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
         <v>2.7436500000000001</v>
       </c>
       <c r="R78">
-        <f t="shared" ref="R78:R97" si="21">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+        <f t="shared" ref="R78:R97" si="23">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
         <v>2.7360999999999995</v>
       </c>
       <c r="S78">
@@ -13597,50 +16709,50 @@
         <v>552</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>80</v>
       </c>
       <c r="P79">
         <v>10</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.0949</v>
       </c>
       <c r="R79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.6240999999999994</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79:S97" si="22">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
+        <f t="shared" ref="S79:S97" si="24">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
         <v>2.7105250000000001E-2</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79:T97" si="23">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
+        <f t="shared" ref="T79:T97" si="25">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
         <v>2.6410999999999997E-2</v>
       </c>
       <c r="W79" t="e">
-        <f t="shared" ref="W79:W97" si="24">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="W79:W97" si="26">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="X79" t="e">
-        <f t="shared" ref="X79:X97" si="25">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="X79:X97" si="27">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Y79" t="e">
-        <f t="shared" ref="Y79:Y97" si="26">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="Y79:Y97" si="28">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Z79" t="e">
-        <f t="shared" ref="Z79:Z97" si="27">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="Z79:Z97" si="29">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AA79" t="e">
-        <f t="shared" ref="AA79:AA97" si="28">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="AA79:AA97" si="30">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AB79" t="e">
-        <f t="shared" ref="AB79:AB94" si="29">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="AB79:AB94" si="31">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13663,50 +16775,50 @@
         <v>551</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>79</v>
       </c>
       <c r="P80">
         <v>15</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.3361499999999999</v>
       </c>
       <c r="R80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.192099999999999</v>
       </c>
       <c r="S80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.3182875000000003E-2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.5951499999999992E-2</v>
       </c>
       <c r="W80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.85844608887221352</v>
       </c>
       <c r="X80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.78776415786772946</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.95392282182574906</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.87537961690012545</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.3490505920831879</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.2379737264451216</v>
       </c>
     </row>
@@ -13722,50 +16834,50 @@
         <v>550</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
       <c r="P81">
         <v>20</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.4899</v>
       </c>
       <c r="R81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5000999999999989</v>
       </c>
       <c r="S81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.024800000000001E-2</v>
       </c>
       <c r="T81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.7681999999999992E-2</v>
       </c>
       <c r="W81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3429445260322561</v>
       </c>
       <c r="X81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.2323704159485751</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.5060295481829031</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3820274961085253</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.1298474123748865</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.9544820285692064</v>
       </c>
       <c r="AE81" t="s">
@@ -13784,50 +16896,50 @@
         <v>547</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="P82">
         <v>25</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.5786500000000001</v>
       </c>
       <c r="R82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.6080999999999994</v>
       </c>
       <c r="S82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.7919375000000013E-2</v>
       </c>
       <c r="T82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.0452499999999991E-2</v>
       </c>
       <c r="W82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.7052744463868568</v>
       </c>
       <c r="X82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5648671542742267</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9212707383396019</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.7630789456008633</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7170871351504351</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.4933701564031971</v>
       </c>
     </row>
@@ -13843,50 +16955,50 @@
         <v>545</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="P83">
         <v>30</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6249000000000002</v>
       </c>
       <c r="R83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5760999999999976</v>
       </c>
       <c r="S83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.592825000000002E-2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11341299999999999</v>
       </c>
       <c r="W83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0083614278809483</v>
       </c>
       <c r="X83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.8429988434185482</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.26413614873311</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.077713824577895</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.2019720485975509</v>
       </c>
       <c r="AB83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.9383310694481328</v>
       </c>
     </row>
@@ -13902,50 +17014,50 @@
         <v>540</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>68</v>
       </c>
       <c r="P84">
         <v>35</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6511500000000003</v>
       </c>
       <c r="R84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4640999999999966</v>
       </c>
       <c r="S84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.11411837500000002</v>
       </c>
       <c r="T84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13601349999999998</v>
       </c>
       <c r="W84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.2738510147984634</v>
       </c>
       <c r="X84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.0866287970892441</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.5571162957519156</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.3465708463291928</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.6163085460176094</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.3185523159480561</v>
       </c>
     </row>
@@ -13961,50 +17073,50 @@
         <v>535</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="P85">
         <v>40</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6798999999999999</v>
       </c>
       <c r="R85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.332099999999997</v>
       </c>
       <c r="S85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13244600000000001</v>
       </c>
       <c r="T85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.15800399999999998</v>
       </c>
       <c r="W85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.513140465632592</v>
       </c>
       <c r="X85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.3062158569716256</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8130499462327356</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5814316713181098</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.9782533855952407</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.6506956799175168</v>
       </c>
     </row>
@@ -14020,50 +17132,50 @@
         <v>522</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="P86">
         <v>45</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.7336500000000004</v>
       </c>
       <c r="R86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.2401</v>
       </c>
       <c r="S86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.15097987500000001</v>
       </c>
       <c r="T86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.17943449999999997</v>
       </c>
       <c r="W86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.7339060312124848</v>
       </c>
       <c r="X86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.5088042339350687</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.041817918613801</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7913635603976399</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.3017801547731374</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.947584204628392</v>
       </c>
     </row>
@@ -14079,50 +17191,50 @@
         <v>512</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="P87">
         <v>50</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.8349000000000002</v>
       </c>
       <c r="R87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.2480999999999991</v>
       </c>
       <c r="S87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.16990125</v>
       </c>
       <c r="T87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.20065499999999997</v>
       </c>
       <c r="W87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9422488210550788</v>
       </c>
       <c r="X87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.699992690048584</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.2525278630628205</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9847242665560283</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.5997690159398221</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.2210375377076241</v>
       </c>
     </row>
@@ -14138,50 +17250,50 @@
         <v>497</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="P88">
         <v>55</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.0061500000000008</v>
       </c>
       <c r="R88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4160999999999984</v>
       </c>
       <c r="S88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.18950387500000002</v>
       </c>
       <c r="T88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.22231549999999997</v>
       </c>
       <c r="W88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.1435636127649778</v>
       </c>
       <c r="X88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8847318127650876</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.454376752758737</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.1699535111982153</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.8852264532977383</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.4829912476287292</v>
       </c>
     </row>
@@ -14197,50 +17309,50 @@
         <v>482</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="P89">
         <v>60</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.2699000000000007</v>
       </c>
       <c r="R89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.8040999999999947</v>
       </c>
       <c r="S89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.21019400000000002</v>
       </c>
       <c r="T89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.24536599999999995</v>
       </c>
       <c r="W89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.3429216263621857</v>
       </c>
       <c r="X89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.0676752727346108</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.6569625374072396</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.3558589770257345</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.1717260174916451</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.745901278721294</v>
       </c>
     </row>
@@ -14256,50 +17368,50 @@
         <v>472</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P90">
         <v>65</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.6486499999999999</v>
       </c>
       <c r="R90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.4721000000000011</v>
       </c>
       <c r="S90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.23249037500000003</v>
       </c>
       <c r="T90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.27105649999999992</v>
       </c>
       <c r="W90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.5452289682755334</v>
       </c>
       <c r="X90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.253325221984424</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.8702753455019185</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.5516082346778588</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.4733958837270293</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0227325337173934</v>
       </c>
     </row>
@@ -14315,50 +17427,50 @@
         <v>465</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-7</v>
       </c>
       <c r="P91">
         <v>70</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.1649000000000012</v>
       </c>
       <c r="R91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.4800999999999931</v>
       </c>
       <c r="S91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.25702425000000001</v>
       </c>
       <c r="T91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.3009369999999999</v>
       </c>
       <c r="W91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.7552650538943322</v>
       </c>
       <c r="X91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.4460675528705713</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.1044564195518012</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.76650752652486</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.8045779346994717</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.3266460267917966</v>
       </c>
     </row>
@@ -14381,43 +17493,43 @@
         <v>75</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.8411500000000007</v>
       </c>
       <c r="R92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.8880999999999979</v>
       </c>
       <c r="S92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.28453937500000004</v>
       </c>
       <c r="T92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.33685749999999987</v>
       </c>
       <c r="W92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.9776514348922034</v>
       </c>
       <c r="X92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6501432920683516</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.3693928353948666</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.0096298556035519</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.1792546071512531</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.6704729218906182</v>
       </c>
     </row>
@@ -14426,43 +17538,43 @@
         <v>80</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.6999000000000013</v>
       </c>
       <c r="R93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.7560999999999964</v>
       </c>
       <c r="S93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.31589200000000006</v>
       </c>
       <c r="T93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.38096799999999986</v>
       </c>
       <c r="W93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.2167819483582507</v>
       </c>
       <c r="X93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.8695845010189815</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.6742379057981198</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2893748777770941</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.6103706401381146</v>
       </c>
       <c r="AB93">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0660921262548033</v>
       </c>
     </row>
@@ -14471,43 +17583,43 @@
         <v>85</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.7636500000000019</v>
       </c>
       <c r="R94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12.144099999999995</v>
       </c>
       <c r="S94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.3520508750000001</v>
       </c>
       <c r="T94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.43571849999999984</v>
       </c>
       <c r="W94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.4767376165573971</v>
       </c>
       <c r="X94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1081361825938592</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.0269678982464159</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.6130621180798279</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.1092061793142545</v>
       </c>
       <c r="AB94">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.5238550114580489</v>
       </c>
     </row>
@@ -14516,39 +17628,39 @@
         <v>90</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.0549000000000017</v>
       </c>
       <c r="R95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>15.112100000000005</v>
       </c>
       <c r="S95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.39409725000000012</v>
       </c>
       <c r="T95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.50385899999999983</v>
       </c>
       <c r="W95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.7612055327406324</v>
       </c>
       <c r="X95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.3691818456090852</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.4340765084786939</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9866506004056781</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.684944697263604</v>
       </c>
       <c r="AB95">
@@ -14561,39 +17673,39 @@
         <v>95</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.596150000000002</v>
       </c>
       <c r="R96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>18.720099999999999</v>
       </c>
       <c r="S96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.44322487500000013</v>
       </c>
       <c r="T96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.58843949999999978</v>
       </c>
       <c r="W96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.073416470929625</v>
       </c>
       <c r="X96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.6556862516372624</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.9004634351887972</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.4146365966410155</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.3445154143305391</v>
       </c>
       <c r="AB96">
@@ -14606,39 +17718,39 @@
         <v>100</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.4099</v>
       </c>
       <c r="R97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23.028099999999998</v>
       </c>
       <c r="S97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.50074000000000018</v>
       </c>
       <c r="T97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.69280999999999981</v>
       </c>
       <c r="W97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.4161102278295639</v>
       </c>
       <c r="X97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9701636105654998</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.4295120343615491</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.9001248871706533</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.0927031184351321</v>
       </c>
       <c r="AB97">
@@ -14651,23 +17763,23 @@
         <v>35</v>
       </c>
       <c r="W100">
-        <f t="shared" ref="W100:AA100" si="30">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
+        <f t="shared" ref="W100:AA100" si="32">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
         <v>2.1213137474238475</v>
       </c>
       <c r="X100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.8361518472553215</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.8430668778456725</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.4532586769452918</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.2279635124640214</v>
       </c>
       <c r="AB100">
@@ -14755,7 +17867,7 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="31">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="33">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
@@ -14775,15 +17887,15 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="32">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="34">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" ref="U107:U170" si="33">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U108:U170" si="35">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
         <v>7.6358455224097641</v>
       </c>
       <c r="V108">
@@ -14799,19 +17911,19 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72835616712494855</v>
       </c>
       <c r="T109">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.6100800000000002E-2</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6250190681383652</v>
       </c>
       <c r="V109">
-        <f t="shared" ref="V107:V170" si="34">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
+        <f t="shared" ref="V109:V170" si="36">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
         <v>3.8971013192635948</v>
       </c>
     </row>
@@ -14823,19 +17935,19 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72686912151789163</v>
       </c>
       <c r="T110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.76704E-2</v>
       </c>
       <c r="U110" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6141772199524018</v>
       </c>
       <c r="V110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9045324522837372</v>
       </c>
     </row>
@@ -14847,19 +17959,19 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72541272024949111</v>
       </c>
       <c r="T111">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.9239999999999997E-2</v>
       </c>
       <c r="U111" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6033199119996597</v>
       </c>
       <c r="V111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9116427138300871</v>
       </c>
     </row>
@@ -14871,19 +17983,19 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72398504503586458</v>
       </c>
       <c r="T112">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.0809599999999994E-2</v>
       </c>
       <c r="U112" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5924470779570754</v>
       </c>
       <c r="V112">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9184464447851206</v>
       </c>
     </row>
@@ -14895,19 +18007,19 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72258432403162098</v>
       </c>
       <c r="T113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.2379200000000006E-2</v>
       </c>
       <c r="U113" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5815586510260102</v>
       </c>
       <c r="V113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9249568658636802</v>
       </c>
     </row>
@@ -14919,15 +18031,15 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72120895122798068</v>
       </c>
       <c r="T114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.3948800000000003E-2</v>
       </c>
       <c r="U114" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5706545639274658</v>
       </c>
       <c r="V114">
@@ -14943,19 +18055,19 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71985745837108495</v>
       </c>
       <c r="T115">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.5518400000000001E-2</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5597347488972257</v>
       </c>
       <c r="V115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9371457591409165</v>
       </c>
     </row>
@@ -14967,19 +18079,19 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71852850240436128</v>
       </c>
       <c r="T116">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.7087999999999998E-2</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5487991376809473</v>
       </c>
       <c r="V116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9428460671200982</v>
       </c>
     </row>
@@ -14991,19 +18103,19 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71722084809074993</v>
       </c>
       <c r="T117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.8657600000000002E-2</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5378476615291872</v>
       </c>
       <c r="V117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9482969053648036</v>
       </c>
     </row>
@@ -15015,19 +18127,19 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71593335959189131</v>
       </c>
       <c r="T118">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.02272E-2</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5268802511923525</v>
       </c>
       <c r="V118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9535073984137048</v>
       </c>
     </row>
@@ -15039,19 +18151,19 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71466498835283931</v>
       </c>
       <c r="T119">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.1796800000000004E-2</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.515896836915597</v>
       </c>
       <c r="V119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9584860714647165</v>
       </c>
     </row>
@@ -15063,19 +18175,19 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71341476443689977</v>
       </c>
       <c r="T120">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.3366400000000001E-2</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5048973484336408</v>
       </c>
       <c r="V120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9632409041733787</v>
       </c>
     </row>
@@ -15087,19 +18199,19 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71218178865764159</v>
       </c>
       <c r="T121">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.4935999999999999E-2</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4938817149655303</v>
       </c>
       <c r="V121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9677793783799422</v>
       </c>
     </row>
@@ -15111,19 +18223,19 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71096522566934539</v>
       </c>
       <c r="T122">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.6505600000000003E-2</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4828498652093192</v>
       </c>
       <c r="V122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9721085205826432</v>
       </c>
     </row>
@@ -15135,19 +18247,19 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70976429789284623</v>
       </c>
       <c r="T123">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.80752E-2</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4718017273366906</v>
       </c>
       <c r="V123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.976234939847676</v>
       </c>
     </row>
@@ -15159,19 +18271,19 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70857828015022117</v>
       </c>
       <c r="T124">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.9644799999999998E-2</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4607372289874929</v>
       </c>
       <c r="V124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9801648617415704</v>
       </c>
     </row>
@@ -15183,19 +18295,19 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70740649491530516</v>
       </c>
       <c r="T125">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.1214400000000002E-2</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4496562972642169</v>
       </c>
       <c r="V125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.98390415878487</v>
       </c>
     </row>
@@ -15207,19 +18319,19 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70624830809326333</v>
       </c>
       <c r="T126">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.2783999999999993E-2</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4385588587263882</v>
       </c>
       <c r="V126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9874583778536432</v>
       </c>
     </row>
@@ -15231,19 +18343,19 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70510312526409036</v>
       </c>
       <c r="T127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.4353599999999997E-2</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4274448393848909</v>
       </c>
       <c r="V127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9908327648949204</v>
       </c>
     </row>
@@ -15255,19 +18367,19 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.7039702286790146</v>
       </c>
       <c r="T128">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.5923199999999987E-2</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4163141646962112</v>
       </c>
       <c r="V128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9940322872707057</v>
       </c>
     </row>
@@ -15279,19 +18391,19 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70284916813562359</v>
       </c>
       <c r="T129">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.7492800000000006E-2</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4051667595566064</v>
       </c>
       <c r="V129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9970616540052064</v>
       </c>
     </row>
@@ -15303,19 +18415,19 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70174033651989831</v>
       </c>
       <c r="T130">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.906240000000001E-2</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3940025482961875</v>
       </c>
       <c r="V130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.999925334172922</v>
       </c>
     </row>
@@ -15327,19 +18439,19 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70064186887730906</v>
       </c>
       <c r="T131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.0632E-2</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3828214546729303</v>
       </c>
       <c r="V131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0026275736113046</v>
       </c>
     </row>
@@ -15351,19 +18463,19 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69955390507326687</v>
       </c>
       <c r="T132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.2201600000000005E-2</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3716234018666036</v>
       </c>
       <c r="V132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0051724101881483</v>
       </c>
     </row>
@@ -15375,19 +18487,19 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69847604757934878</v>
       </c>
       <c r="T133">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.3771199999999995E-2</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3604083124726012</v>
       </c>
       <c r="V133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.007563687719828</v>
       </c>
     </row>
@@ -15399,19 +18511,19 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69740789393925806</v>
       </c>
       <c r="T134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.5340799999999999E-2</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3491761084957128</v>
       </c>
       <c r="V134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.009805068718209</v>
       </c>
     </row>
@@ -15423,19 +18535,19 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69634906030433319</v>
       </c>
       <c r="T135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.6910400000000004E-2</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3379267113437843</v>
       </c>
       <c r="V135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0119000460724781</v>
       </c>
     </row>
@@ -15447,19 +18559,19 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69529920664589095</v>
       </c>
       <c r="T136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.8479999999999994E-2</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3266600418213095</v>
       </c>
       <c r="V136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0138519537746067</v>
       </c>
     </row>
@@ -15471,19 +18583,19 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69425799384992126</v>
       </c>
       <c r="T137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.0049599999999999E-2</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3153760201229208</v>
       </c>
       <c r="V137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0156639767825251</v>
       </c>
     </row>
@@ -15495,19 +18607,19 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6932250944116598</v>
       </c>
       <c r="T138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.1619199999999989E-2</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3040745658267943</v>
       </c>
       <c r="V138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0173391601043527</v>
       </c>
     </row>
@@ -15519,19 +18631,19 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69220020742824595</v>
       </c>
       <c r="T139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.3188799999999993E-2</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2927555978879681</v>
       </c>
       <c r="V139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0188804171776837</v>
       </c>
     </row>
@@ -15543,19 +18655,19 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69118304019401799</v>
       </c>
       <c r="T140">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.4758400000000012E-2</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2814190346315542</v>
       </c>
       <c r="V140">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0202905376096911</v>
       </c>
     </row>
@@ -15567,19 +18679,19 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6901733223135007</v>
       </c>
       <c r="T141">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6328000000000002E-2</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2700647937458678</v>
       </c>
       <c r="V141">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0215721943367519</v>
       </c>
     </row>
@@ -15591,19 +18703,19 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68917078259865228</v>
       </c>
       <c r="T142">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7897600000000006E-2</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2586927922754487</v>
       </c>
       <c r="V142">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0227279502559661</v>
       </c>
     </row>
@@ -15615,19 +18727,19 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68817517052727328</v>
       </c>
       <c r="T143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.9467200000000011E-2</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2473029466140009</v>
       </c>
       <c r="V143">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0237602643754844</v>
       </c>
     </row>
@@ -15639,19 +18751,19 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68718624324408784</v>
       </c>
       <c r="T144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.1036800000000001E-2</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2358951724972078</v>
       </c>
       <c r="V144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0246714975256506</v>
       </c>
     </row>
@@ -15663,19 +18775,19 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68620377300777524</v>
       </c>
       <c r="T145">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.2606400000000005E-2</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2244693849954702</v>
       </c>
       <c r="V145">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.025463917668783</v>
       </c>
     </row>
@@ -15687,19 +18799,19 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68522753343094756</v>
       </c>
       <c r="T146">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.4175999999999996E-2</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2130254985065205</v>
       </c>
       <c r="V146">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0261397048415084</v>
       </c>
     </row>
@@ -15711,19 +18823,19 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68425731602477413</v>
       </c>
       <c r="T147">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.57456E-2</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2015634267479491</v>
       </c>
       <c r="V147">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0267009557603552</v>
       </c>
     </row>
@@ -15735,19 +18847,19 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68329291418435478</v>
       </c>
       <c r="T148">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.7315200000000004E-2</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1900830827496067</v>
       </c>
       <c r="V148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0271496881181745</v>
       </c>
     </row>
@@ -15759,19 +18871,19 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68233413281833633</v>
       </c>
       <c r="T149">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.8884799999999995E-2</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1785843788459092</v>
       </c>
       <c r="V149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0274878445964806</v>
       </c>
     </row>
@@ -15783,19 +18895,19 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68727035651049118</v>
       </c>
       <c r="T150">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1004544</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1670672266680278</v>
       </c>
       <c r="V150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.027511652365054</v>
       </c>
     </row>
@@ -15807,19 +18919,19 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68043268612994623</v>
       </c>
       <c r="T151">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10202399999999999</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1555315371359622</v>
       </c>
       <c r="V151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0278398478480364</v>
       </c>
     </row>
@@ -15832,20 +18944,20 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10359360000000001</v>
       </c>
       <c r="U152" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1439772204505081</v>
       </c>
       <c r="V152" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0278572374992159</v>
       </c>
       <c r="W152" s="9"/>
@@ -15861,19 +18973,19 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67855155500822006</v>
       </c>
       <c r="T153">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10516320000000001</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1324041860850951</v>
       </c>
       <c r="V153">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0277711433967136</v>
       </c>
     </row>
@@ -15885,19 +18997,19 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68428073843441362</v>
       </c>
       <c r="T154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1067328</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1208123427775156</v>
       </c>
       <c r="V154">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0273226382088803</v>
       </c>
     </row>
@@ -15909,19 +19021,19 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68355063366352597</v>
       </c>
       <c r="T155">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10830240000000001</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1092015985215271</v>
       </c>
       <c r="V155">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0270193062779231</v>
       </c>
     </row>
@@ -15933,19 +19045,19 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68282708190946328</v>
       </c>
       <c r="T156">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.109872</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0975718605583316</v>
       </c>
       <c r="V156">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0266166295080223</v>
       </c>
     </row>
@@ -15957,19 +19069,19 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68211023195537945</v>
       </c>
       <c r="T157">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1114416</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.085923035367931</v>
       </c>
       <c r="V157">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0261160327561116</v>
       </c>
     </row>
@@ -15981,19 +19093,19 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68139963958787475</v>
       </c>
       <c r="T158">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.11301120000000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0742550286603532</v>
       </c>
       <c r="V158">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0255189417085298</v>
       </c>
     </row>
@@ -16005,19 +19117,19 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68069526935862046</v>
       </c>
       <c r="T159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1145808</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0625677453667457</v>
       </c>
       <c r="V159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0248267022987143</v>
       </c>
     </row>
@@ -16029,19 +19141,19 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67999698441242451</v>
       </c>
       <c r="T160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1161504</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0508610896303399</v>
       </c>
       <c r="V160">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0240406248404064</v>
       </c>
     </row>
@@ -16053,19 +19165,19 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67930465306726673</v>
       </c>
       <c r="T161">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.11771999999999999</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0391349647972765</v>
       </c>
       <c r="V161">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0231619771053682</v>
       </c>
     </row>
@@ -16077,19 +19189,19 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67861815838962392</v>
       </c>
       <c r="T162">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1192896</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0273892734072998</v>
       </c>
       <c r="V162">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0221919851724746</v>
       </c>
     </row>
@@ -16101,19 +19213,19 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67793737140207588</v>
       </c>
       <c r="T163">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1208592</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0156239171843016</v>
       </c>
       <c r="V163">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0211318376084915</v>
       </c>
     </row>
@@ -16125,19 +19237,19 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67726218372984481</v>
       </c>
       <c r="T164">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1224288</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0038387970267291</v>
       </c>
       <c r="V164">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0199826839625361</v>
       </c>
     </row>
@@ -16149,19 +19261,19 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67659248059228527</v>
       </c>
       <c r="T165">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12399840000000001</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9920338129978488</v>
       </c>
       <c r="V165">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0187456388423515</v>
       </c>
     </row>
@@ -16173,19 +19285,19 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67592815043108834</v>
       </c>
       <c r="T166">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12556799999999999</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9802088643158564</v>
       </c>
       <c r="V166">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0174217824391105</v>
       </c>
     </row>
@@ -16197,19 +19309,19 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67526908697557564</v>
       </c>
       <c r="T167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12713759999999999</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9683638493438389</v>
       </c>
       <c r="V167">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.016012161654622</v>
       </c>
     </row>
@@ -16221,19 +19333,19 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67461518967549727</v>
       </c>
       <c r="T168">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12870719999999999</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9564986655795815</v>
       </c>
       <c r="V168">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0145177913068455</v>
       </c>
     </row>
@@ -16245,19 +19357,19 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67396636023285905</v>
       </c>
       <c r="T169">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1302768</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9446132096452233</v>
       </c>
       <c r="V169">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0129396556970267</v>
       </c>
     </row>
@@ -16269,19 +19381,19 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="T170">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.13184639999999997</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9327073772767411</v>
       </c>
       <c r="V170">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.3267525867662506</v>
       </c>
     </row>
@@ -16293,19 +19405,19 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="35">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="37">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="36">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U171:U186" si="38">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
         <v>6.9207810633132851</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="37">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <f t="shared" ref="V171:V186" si="39">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
         <v>1.2087144887313723</v>
       </c>
     </row>
@@ -16317,19 +19429,19 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="38">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="40">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.13498560000000001</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6.9088341616863396</v>
       </c>
       <c r="V172">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0897801217781078</v>
       </c>
     </row>
@@ -16341,19 +19453,19 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
+        <f t="shared" si="40"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="37"/>
+        <v>0.13655520000000002</v>
+      </c>
+      <c r="U173" s="6">
         <f t="shared" si="38"/>
-        <v>1.4311699866353502</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="35"/>
-        <v>0.13655520000000002</v>
-      </c>
-      <c r="U173" s="6">
-        <f t="shared" si="36"/>
         <v>6.8968665654087156</v>
       </c>
       <c r="V173">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.97007719953509874</v>
       </c>
     </row>
@@ -16365,19 +19477,19 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
+        <f t="shared" si="40"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="37"/>
+        <v>0.13812480000000002</v>
+      </c>
+      <c r="U174" s="6">
         <f t="shared" si="38"/>
-        <v>1.4486232791552935</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="35"/>
-        <v>0.13812480000000002</v>
-      </c>
-      <c r="U174" s="6">
-        <f t="shared" si="36"/>
         <v>6.8848781665633725</v>
       </c>
       <c r="V174">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.84973331030319721</v>
       </c>
     </row>
@@ -16389,19 +19501,19 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
+        <f t="shared" si="40"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="37"/>
+        <v>0.1396944</v>
+      </c>
+      <c r="U175" s="6">
         <f t="shared" si="38"/>
-        <v>1.4660765716752369</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="35"/>
-        <v>0.1396944</v>
-      </c>
-      <c r="U175" s="6">
-        <f t="shared" si="36"/>
         <v>6.8728688562920688</v>
       </c>
       <c r="V175">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.72887576386748687</v>
       </c>
     </row>
@@ -16413,19 +19525,19 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
+        <f t="shared" si="40"/>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="37"/>
+        <v>0.141264</v>
+      </c>
+      <c r="U176" s="6">
         <f t="shared" si="38"/>
-        <v>1.48352986419518</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="35"/>
-        <v>0.141264</v>
-      </c>
-      <c r="U176" s="6">
-        <f t="shared" si="36"/>
         <v>6.8608385247838237</v>
       </c>
       <c r="V176">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.60763143960480015</v>
       </c>
     </row>
@@ -16437,19 +19549,19 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="37"/>
+        <v>0.14283360000000001</v>
+      </c>
+      <c r="U177" s="6">
         <f t="shared" si="38"/>
-        <v>1.5009831567151235</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="35"/>
-        <v>0.14283360000000001</v>
-      </c>
-      <c r="U177" s="6">
-        <f t="shared" si="36"/>
         <v>6.8487870612632058</v>
       </c>
       <c r="V177">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.48612663608815204</v>
       </c>
     </row>
@@ -16461,19 +19573,19 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="37"/>
+        <v>0.14440320000000001</v>
+      </c>
+      <c r="U178" s="6">
         <f t="shared" si="38"/>
-        <v>1.5184364492350666</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="35"/>
-        <v>0.14440320000000001</v>
-      </c>
-      <c r="U178" s="6">
-        <f t="shared" si="36"/>
         <v>6.8367143539784312</v>
       </c>
       <c r="V178">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.36448692238617619</v>
       </c>
     </row>
@@ -16485,19 +19597,19 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="37"/>
+        <v>0.14597280000000001</v>
+      </c>
+      <c r="U179" s="6">
         <f t="shared" si="38"/>
-        <v>1.5358897417550099</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="35"/>
-        <v>0.14597280000000001</v>
-      </c>
-      <c r="U179" s="6">
-        <f t="shared" si="36"/>
         <v>6.8246202901892747</v>
       </c>
       <c r="V179">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.24283699125191599</v>
       </c>
     </row>
@@ -16509,19 +19621,19 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="37"/>
+        <v>0.14754239999999999</v>
+      </c>
+      <c r="U180" s="6">
         <f t="shared" si="38"/>
-        <v>1.5533430342749532</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="35"/>
-        <v>0.14754239999999999</v>
-      </c>
-      <c r="U180" s="6">
-        <f t="shared" si="36"/>
         <v>6.8125047561547847</v>
       </c>
       <c r="V180">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.1213005143916261</v>
       </c>
     </row>
@@ -16533,19 +19645,19 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="37"/>
+        <v>0.14911199999999999</v>
+      </c>
+      <c r="U181" s="6">
         <f t="shared" si="38"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="35"/>
-        <v>0.14911199999999999</v>
-      </c>
-      <c r="U181" s="6">
-        <f t="shared" si="36"/>
         <v>6.8003676371208028</v>
       </c>
       <c r="V181">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.2518325304548242E-16</v>
       </c>
     </row>
@@ -16557,19 +19669,19 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5882496193148399</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="37"/>
+        <v>0.1506816</v>
+      </c>
+      <c r="U182" s="6">
         <f t="shared" si="38"/>
-        <v>1.5882496193148399</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="35"/>
-        <v>0.1506816</v>
-      </c>
-      <c r="U182" s="6">
-        <f t="shared" si="36"/>
         <v>6.7882088173072876</v>
       </c>
       <c r="V182">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.12094334725596025</v>
       </c>
     </row>
@@ -16581,19 +19693,19 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
+        <f t="shared" si="40"/>
+        <v>1.605702911834783</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="37"/>
+        <v>0.1522512</v>
+      </c>
+      <c r="U183" s="6">
         <f t="shared" si="38"/>
-        <v>1.605702911834783</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="35"/>
-        <v>0.1522512</v>
-      </c>
-      <c r="U183" s="6">
-        <f t="shared" si="36"/>
         <v>6.7760281798954187</v>
       </c>
       <c r="V183">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.2414097636268028</v>
       </c>
     </row>
@@ -16605,19 +19717,19 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
+        <f t="shared" si="40"/>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="37"/>
+        <v>0.15382080000000001</v>
+      </c>
+      <c r="U184" s="6">
         <f t="shared" si="38"/>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="35"/>
-        <v>0.15382080000000001</v>
-      </c>
-      <c r="U184" s="6">
-        <f t="shared" si="36"/>
         <v>6.7638256070145131</v>
       </c>
       <c r="V184">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.36128106087130518</v>
       </c>
     </row>
@@ -16629,19 +19741,19 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
+        <f t="shared" si="40"/>
+        <v>1.6406094968746698</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="37"/>
+        <v>0.15539039999999998</v>
+      </c>
+      <c r="U185" s="6">
         <f t="shared" si="38"/>
-        <v>1.6406094968746698</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="35"/>
-        <v>0.15539039999999998</v>
-      </c>
-      <c r="U185" s="6">
-        <f t="shared" si="36"/>
         <v>6.7516009797287087</v>
       </c>
       <c r="V185">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.4804407578800044</v>
       </c>
     </row>
@@ -16653,30 +19765,33 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
+        <f t="shared" si="40"/>
+        <v>0.64951687336147113</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="37"/>
+        <v>0.15695999999999999</v>
+      </c>
+      <c r="U186" s="5">
         <f t="shared" si="38"/>
-        <v>0.64951687336147113</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="35"/>
-        <v>0.15695999999999999</v>
-      </c>
-      <c r="U186" s="5">
-        <f t="shared" si="36"/>
         <v>6.7393541780234463</v>
       </c>
       <c r="V186">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.9751938924073293</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AI37:AI38"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AB17:AC21"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="AH35:AH36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16733,4 +19848,45 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B2F51-943D-4643-A920-3ED8965FBD1D}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mekanisk produktanalyse/Projekt 2/databehandling backup.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AFB6C0-5426-41F1-A55C-A0724F9916B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD9C3A6-E890-4FBE-B038-1552C0F33373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Målinger med rampe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Ark1'!$Q$153</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -69,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Dobbelt forlængelse</t>
+  </si>
+  <si>
+    <t>Kraft +2.4N</t>
   </si>
 </sst>
 </file>
@@ -684,70 +684,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,34 +1215,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1327,34 +1327,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,142 +3267,136 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$C$6:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="20"/>
+              <c:pt idx="0">
+                <c:v>346</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>336</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>333</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>329</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>325</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>321</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>315</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>305</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>279</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>177</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>147</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$A$6:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="20"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3442,172 +3436,166 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$G$6:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>369</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>367</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>366</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>361</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>358</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>352</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>344</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>334</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>330</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>323</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>314</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>294</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>232</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>182</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>127</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$E$6:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3647,172 +3635,166 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$K$6:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>293.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>296</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>295</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>293.5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>291</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>289</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>287</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>284</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>281</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>277</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>273</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>267</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>262</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>256</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>246</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>222</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>182</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>114</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$I$6:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3852,178 +3834,172 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$O$6:$O$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>359</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>357</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>353</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>337</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>332</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>326</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>323</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>317</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>294</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>272</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>195</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>179</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>124</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$M$6:$M$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2.25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -4063,178 +4039,172 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$S$6:$S$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>358</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>357</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>353</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>332</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>326</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>322</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>316</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>301</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>273</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>234</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>205</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>129</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>7.5</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$Q$6:$Q$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2.25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -6457,7 +6427,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$AH$39:$AH$64</c:f>
+              <c:f>'Ark1'!$AG$39:$AG$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -6581,7 +6551,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$AI$39:$AI$64</c:f>
+              <c:f>'Ark1'!$AH$39:$AH$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -7024,6 +6994,818 @@
           <c:y val="0.89095829931175818"/>
           <c:w val="0.73850054665814191"/>
           <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Typisk Enkeltløkke vs Dobbeltløkke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dobbeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$K$39:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AI$39:$AI$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E95-4403-8A25-954E361E2A9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Elastik i affyringsrampe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$71:$G$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$E$71:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E95-4403-8A25-954E361E2A9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.46899104807059983"/>
+          <c:h val="6.3138208848022445E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7379,6 +8161,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10476,6 +11298,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11365,805 +12703,45 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>54119</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagram 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CED11B-4301-4BCA-8C83-21BE0BE20547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Ark1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6">
-            <v>15</v>
-          </cell>
-          <cell r="C6">
-            <v>346</v>
-          </cell>
-          <cell r="E6">
-            <v>15</v>
-          </cell>
-          <cell r="G6">
-            <v>369</v>
-          </cell>
-          <cell r="I6">
-            <v>15</v>
-          </cell>
-          <cell r="K6">
-            <v>296</v>
-          </cell>
-          <cell r="M6">
-            <v>15</v>
-          </cell>
-          <cell r="O6">
-            <v>359</v>
-          </cell>
-          <cell r="Q6">
-            <v>15</v>
-          </cell>
-          <cell r="S6">
-            <v>358</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>14</v>
-          </cell>
-          <cell r="C7">
-            <v>345</v>
-          </cell>
-          <cell r="E7">
-            <v>14</v>
-          </cell>
-          <cell r="G7">
-            <v>367</v>
-          </cell>
-          <cell r="I7">
-            <v>14</v>
-          </cell>
-          <cell r="K7">
-            <v>295</v>
-          </cell>
-          <cell r="M7">
-            <v>14</v>
-          </cell>
-          <cell r="O7">
-            <v>357</v>
-          </cell>
-          <cell r="Q7">
-            <v>14</v>
-          </cell>
-          <cell r="S7">
-            <v>357</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>13</v>
-          </cell>
-          <cell r="C8">
-            <v>342</v>
-          </cell>
-          <cell r="E8">
-            <v>13</v>
-          </cell>
-          <cell r="G8">
-            <v>366</v>
-          </cell>
-          <cell r="I8">
-            <v>13</v>
-          </cell>
-          <cell r="K8">
-            <v>293.5</v>
-          </cell>
-          <cell r="M8">
-            <v>13</v>
-          </cell>
-          <cell r="O8">
-            <v>355</v>
-          </cell>
-          <cell r="Q8">
-            <v>13</v>
-          </cell>
-          <cell r="S8">
-            <v>355</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>12</v>
-          </cell>
-          <cell r="C9">
-            <v>340</v>
-          </cell>
-          <cell r="E9">
-            <v>12</v>
-          </cell>
-          <cell r="G9">
-            <v>364</v>
-          </cell>
-          <cell r="I9">
-            <v>12</v>
-          </cell>
-          <cell r="K9">
-            <v>291</v>
-          </cell>
-          <cell r="M9">
-            <v>12</v>
-          </cell>
-          <cell r="O9">
-            <v>353</v>
-          </cell>
-          <cell r="Q9">
-            <v>12</v>
-          </cell>
-          <cell r="S9">
-            <v>353</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>11</v>
-          </cell>
-          <cell r="C10">
-            <v>338</v>
-          </cell>
-          <cell r="E10">
-            <v>11</v>
-          </cell>
-          <cell r="G10">
-            <v>361</v>
-          </cell>
-          <cell r="I10">
-            <v>11</v>
-          </cell>
-          <cell r="K10">
-            <v>289</v>
-          </cell>
-          <cell r="M10">
-            <v>11</v>
-          </cell>
-          <cell r="O10">
-            <v>350</v>
-          </cell>
-          <cell r="Q10">
-            <v>11</v>
-          </cell>
-          <cell r="S10">
-            <v>350</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="C11">
-            <v>336</v>
-          </cell>
-          <cell r="E11">
-            <v>10</v>
-          </cell>
-          <cell r="G11">
-            <v>358</v>
-          </cell>
-          <cell r="I11">
-            <v>10</v>
-          </cell>
-          <cell r="K11">
-            <v>287</v>
-          </cell>
-          <cell r="M11">
-            <v>10</v>
-          </cell>
-          <cell r="O11">
-            <v>348</v>
-          </cell>
-          <cell r="Q11">
-            <v>10</v>
-          </cell>
-          <cell r="S11">
-            <v>348</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9</v>
-          </cell>
-          <cell r="C12">
-            <v>333</v>
-          </cell>
-          <cell r="E12">
-            <v>9</v>
-          </cell>
-          <cell r="G12">
-            <v>355</v>
-          </cell>
-          <cell r="I12">
-            <v>9</v>
-          </cell>
-          <cell r="K12">
-            <v>284</v>
-          </cell>
-          <cell r="M12">
-            <v>9</v>
-          </cell>
-          <cell r="O12">
-            <v>345</v>
-          </cell>
-          <cell r="Q12">
-            <v>9</v>
-          </cell>
-          <cell r="S12">
-            <v>345</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>8</v>
-          </cell>
-          <cell r="C13">
-            <v>329</v>
-          </cell>
-          <cell r="E13">
-            <v>8</v>
-          </cell>
-          <cell r="G13">
-            <v>352</v>
-          </cell>
-          <cell r="I13">
-            <v>8</v>
-          </cell>
-          <cell r="K13">
-            <v>281</v>
-          </cell>
-          <cell r="M13">
-            <v>8</v>
-          </cell>
-          <cell r="O13">
-            <v>342</v>
-          </cell>
-          <cell r="Q13">
-            <v>8</v>
-          </cell>
-          <cell r="S13">
-            <v>342</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>7</v>
-          </cell>
-          <cell r="C14">
-            <v>325</v>
-          </cell>
-          <cell r="E14">
-            <v>7</v>
-          </cell>
-          <cell r="G14">
-            <v>348</v>
-          </cell>
-          <cell r="I14">
-            <v>7</v>
-          </cell>
-          <cell r="K14">
-            <v>277</v>
-          </cell>
-          <cell r="M14">
-            <v>7</v>
-          </cell>
-          <cell r="O14">
-            <v>337</v>
-          </cell>
-          <cell r="Q14">
-            <v>7</v>
-          </cell>
-          <cell r="S14">
-            <v>338</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>321</v>
-          </cell>
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="G15">
-            <v>344</v>
-          </cell>
-          <cell r="I15">
-            <v>6</v>
-          </cell>
-          <cell r="K15">
-            <v>273</v>
-          </cell>
-          <cell r="M15">
-            <v>6</v>
-          </cell>
-          <cell r="O15">
-            <v>332</v>
-          </cell>
-          <cell r="Q15">
-            <v>6</v>
-          </cell>
-          <cell r="S15">
-            <v>332</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>5</v>
-          </cell>
-          <cell r="C16">
-            <v>315</v>
-          </cell>
-          <cell r="E16">
-            <v>5</v>
-          </cell>
-          <cell r="G16">
-            <v>338</v>
-          </cell>
-          <cell r="I16">
-            <v>5</v>
-          </cell>
-          <cell r="K16">
-            <v>267</v>
-          </cell>
-          <cell r="M16">
-            <v>5</v>
-          </cell>
-          <cell r="O16">
-            <v>326</v>
-          </cell>
-          <cell r="Q16">
-            <v>5</v>
-          </cell>
-          <cell r="S16">
-            <v>326</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>4</v>
-          </cell>
-          <cell r="C17">
-            <v>305</v>
-          </cell>
-          <cell r="E17">
-            <v>4.5</v>
-          </cell>
-          <cell r="G17">
-            <v>334</v>
-          </cell>
-          <cell r="I17">
-            <v>4.5</v>
-          </cell>
-          <cell r="K17">
-            <v>262</v>
-          </cell>
-          <cell r="M17">
-            <v>4.5</v>
-          </cell>
-          <cell r="O17">
-            <v>323</v>
-          </cell>
-          <cell r="Q17">
-            <v>4.5</v>
-          </cell>
-          <cell r="S17">
-            <v>322</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>3</v>
-          </cell>
-          <cell r="C18">
-            <v>279</v>
-          </cell>
-          <cell r="E18">
-            <v>4</v>
-          </cell>
-          <cell r="G18">
-            <v>330</v>
-          </cell>
-          <cell r="I18">
-            <v>4</v>
-          </cell>
-          <cell r="K18">
-            <v>256</v>
-          </cell>
-          <cell r="M18">
-            <v>4</v>
-          </cell>
-          <cell r="O18">
-            <v>317</v>
-          </cell>
-          <cell r="Q18">
-            <v>4</v>
-          </cell>
-          <cell r="S18">
-            <v>316</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2.5</v>
-          </cell>
-          <cell r="C19">
-            <v>177</v>
-          </cell>
-          <cell r="E19">
-            <v>3.5</v>
-          </cell>
-          <cell r="G19">
-            <v>323</v>
-          </cell>
-          <cell r="I19">
-            <v>3.5</v>
-          </cell>
-          <cell r="K19">
-            <v>246</v>
-          </cell>
-          <cell r="M19">
-            <v>3.5</v>
-          </cell>
-          <cell r="O19">
-            <v>310</v>
-          </cell>
-          <cell r="Q19">
-            <v>3.5</v>
-          </cell>
-          <cell r="S19">
-            <v>310</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>147</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-          <cell r="G20">
-            <v>314</v>
-          </cell>
-          <cell r="I20">
-            <v>3</v>
-          </cell>
-          <cell r="K20">
-            <v>222</v>
-          </cell>
-          <cell r="M20">
-            <v>3</v>
-          </cell>
-          <cell r="O20">
-            <v>294</v>
-          </cell>
-          <cell r="Q20">
-            <v>3</v>
-          </cell>
-          <cell r="S20">
-            <v>301</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1.5</v>
-          </cell>
-          <cell r="C21">
-            <v>68</v>
-          </cell>
-          <cell r="E21">
-            <v>2.5</v>
-          </cell>
-          <cell r="G21">
-            <v>294</v>
-          </cell>
-          <cell r="I21">
-            <v>2.5</v>
-          </cell>
-          <cell r="K21">
-            <v>182</v>
-          </cell>
-          <cell r="M21">
-            <v>2.5</v>
-          </cell>
-          <cell r="O21">
-            <v>272</v>
-          </cell>
-          <cell r="Q21">
-            <v>2.5</v>
-          </cell>
-          <cell r="S21">
-            <v>273</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1</v>
-          </cell>
-          <cell r="C22">
-            <v>35</v>
-          </cell>
-          <cell r="E22">
-            <v>2</v>
-          </cell>
-          <cell r="G22">
-            <v>232</v>
-          </cell>
-          <cell r="I22">
-            <v>2</v>
-          </cell>
-          <cell r="K22">
-            <v>114</v>
-          </cell>
-          <cell r="M22">
-            <v>2.25</v>
-          </cell>
-          <cell r="O22">
-            <v>195</v>
-          </cell>
-          <cell r="Q22">
-            <v>2.25</v>
-          </cell>
-          <cell r="S22">
-            <v>234</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>0.5</v>
-          </cell>
-          <cell r="C23">
-            <v>12</v>
-          </cell>
-          <cell r="E23">
-            <v>1.75</v>
-          </cell>
-          <cell r="G23">
-            <v>182</v>
-          </cell>
-          <cell r="I23">
-            <v>1.75</v>
-          </cell>
-          <cell r="K23">
-            <v>81</v>
-          </cell>
-          <cell r="M23">
-            <v>2</v>
-          </cell>
-          <cell r="O23">
-            <v>179</v>
-          </cell>
-          <cell r="Q23">
-            <v>2</v>
-          </cell>
-          <cell r="S23">
-            <v>205</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>0.25</v>
-          </cell>
-          <cell r="C24">
-            <v>4</v>
-          </cell>
-          <cell r="E24">
-            <v>1.5</v>
-          </cell>
-          <cell r="G24">
-            <v>127</v>
-          </cell>
-          <cell r="I24">
-            <v>1.5</v>
-          </cell>
-          <cell r="K24">
-            <v>62</v>
-          </cell>
-          <cell r="M24">
-            <v>1.75</v>
-          </cell>
-          <cell r="O24">
-            <v>124</v>
-          </cell>
-          <cell r="Q24">
-            <v>1.75</v>
-          </cell>
-          <cell r="S24">
-            <v>129</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="E25">
-            <v>1.25</v>
-          </cell>
-          <cell r="G25">
-            <v>70</v>
-          </cell>
-          <cell r="I25">
-            <v>1.25</v>
-          </cell>
-          <cell r="K25">
-            <v>45</v>
-          </cell>
-          <cell r="M25">
-            <v>1.5</v>
-          </cell>
-          <cell r="O25">
-            <v>89</v>
-          </cell>
-          <cell r="Q25">
-            <v>1.5</v>
-          </cell>
-          <cell r="S25">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>1</v>
-          </cell>
-          <cell r="G26">
-            <v>51</v>
-          </cell>
-          <cell r="I26">
-            <v>1</v>
-          </cell>
-          <cell r="K26">
-            <v>31</v>
-          </cell>
-          <cell r="M26">
-            <v>1.25</v>
-          </cell>
-          <cell r="O26">
-            <v>60</v>
-          </cell>
-          <cell r="Q26">
-            <v>1.25</v>
-          </cell>
-          <cell r="S26">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>0.75</v>
-          </cell>
-          <cell r="G27">
-            <v>30</v>
-          </cell>
-          <cell r="I27">
-            <v>0.75</v>
-          </cell>
-          <cell r="K27">
-            <v>21</v>
-          </cell>
-          <cell r="M27">
-            <v>1</v>
-          </cell>
-          <cell r="O27">
-            <v>46</v>
-          </cell>
-          <cell r="Q27">
-            <v>1</v>
-          </cell>
-          <cell r="S27">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>0.5</v>
-          </cell>
-          <cell r="G28">
-            <v>18</v>
-          </cell>
-          <cell r="I28">
-            <v>0.5</v>
-          </cell>
-          <cell r="K28">
-            <v>15</v>
-          </cell>
-          <cell r="M28">
-            <v>0.75</v>
-          </cell>
-          <cell r="O28">
-            <v>27</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.75</v>
-          </cell>
-          <cell r="S28">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>0.25</v>
-          </cell>
-          <cell r="G29">
-            <v>7</v>
-          </cell>
-          <cell r="I29">
-            <v>0.25</v>
-          </cell>
-          <cell r="K29">
-            <v>6</v>
-          </cell>
-          <cell r="M29">
-            <v>0.5</v>
-          </cell>
-          <cell r="O29">
-            <v>17</v>
-          </cell>
-          <cell r="Q29">
-            <v>0.5</v>
-          </cell>
-          <cell r="S29">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="G30">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
-            <v>0</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="M30">
-            <v>0.25</v>
-          </cell>
-          <cell r="O30">
-            <v>7</v>
-          </cell>
-          <cell r="Q30">
-            <v>0.25</v>
-          </cell>
-          <cell r="S30">
-            <v>7.5</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="O31">
-            <v>0</v>
-          </cell>
-          <cell r="Q31">
-            <v>0</v>
-          </cell>
-          <cell r="S31">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12431,8 +13009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12443,8 +13021,9 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
@@ -14235,7 +14814,7 @@
       </c>
       <c r="B34" s="24"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -14270,8 +14849,11 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
+      <c r="AG35" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="AH35" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI35" s="21" t="s">
         <v>60</v>
@@ -14325,15 +14907,19 @@
         <f>(SUM(C36+G36+K36+O36+S36)/5)</f>
         <v>60.1</v>
       </c>
+      <c r="AG36" s="21"/>
       <c r="AH36" s="21"/>
       <c r="AI36" s="21"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG37" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="AH37" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI37" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
@@ -14392,6 +14978,7 @@
       <c r="U38" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AG38" s="22"/>
       <c r="AH38" s="22"/>
       <c r="AI38" s="22"/>
     </row>
@@ -14457,13 +15044,17 @@
         <f>SUM(C39,G39,K39,O39,S39)/5</f>
         <v>105.7</v>
       </c>
-      <c r="AH39" s="3">
+      <c r="AG39" s="3">
         <f>Q6*2</f>
         <v>30</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AH39" s="3">
         <f>K39*2</f>
         <v>222</v>
+      </c>
+      <c r="AI39" s="3">
+        <f>I39+2.4</f>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
@@ -14528,13 +15119,17 @@
         <f t="shared" ref="U40:U49" si="13">SUM(C40,G40,K40,O40,S40)/5</f>
         <v>104.9</v>
       </c>
-      <c r="AH40" s="3">
+      <c r="AG40" s="3">
         <f>Q7*2</f>
         <v>28</v>
       </c>
+      <c r="AH40" s="3">
+        <f>K40*2</f>
+        <v>221</v>
+      </c>
       <c r="AI40" s="3">
-        <f t="shared" ref="AI40:AI64" si="14">K40*2</f>
-        <v>221</v>
+        <f t="shared" ref="AI40:AI64" si="14">I40+2.4</f>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
@@ -14599,13 +15194,17 @@
         <f t="shared" si="13"/>
         <v>104.1</v>
       </c>
+      <c r="AG41" s="3">
+        <f>Q8*2</f>
+        <v>26</v>
+      </c>
       <c r="AH41" s="3">
-        <f t="shared" ref="AH41:AH64" si="15">Q8*2</f>
-        <v>26</v>
+        <f>K41*2</f>
+        <v>220</v>
       </c>
       <c r="AI41" s="3">
         <f t="shared" si="14"/>
-        <v>220</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
@@ -14670,13 +15269,17 @@
         <f t="shared" si="13"/>
         <v>103.1</v>
       </c>
+      <c r="AG42" s="3">
+        <f>Q9*2</f>
+        <v>24</v>
+      </c>
       <c r="AH42" s="3">
-        <f t="shared" si="15"/>
-        <v>24</v>
+        <f>K42*2</f>
+        <v>218</v>
       </c>
       <c r="AI42" s="3">
         <f t="shared" si="14"/>
-        <v>218</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
@@ -14741,13 +15344,17 @@
         <f t="shared" si="13"/>
         <v>101.9</v>
       </c>
+      <c r="AG43" s="3">
+        <f>Q10*2</f>
+        <v>22</v>
+      </c>
       <c r="AH43" s="3">
-        <f t="shared" si="15"/>
-        <v>22</v>
+        <f>K43*2</f>
+        <v>215</v>
       </c>
       <c r="AI43" s="3">
         <f t="shared" si="14"/>
-        <v>215</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
@@ -14812,13 +15419,17 @@
         <f t="shared" si="13"/>
         <v>100.3</v>
       </c>
+      <c r="AG44" s="3">
+        <f>Q11*2</f>
+        <v>20</v>
+      </c>
       <c r="AH44" s="3">
-        <f t="shared" si="15"/>
-        <v>20</v>
+        <f>K44*2</f>
+        <v>212</v>
       </c>
       <c r="AI44" s="3">
         <f t="shared" si="14"/>
-        <v>212</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
@@ -14883,13 +15494,17 @@
         <f t="shared" si="13"/>
         <v>98.6</v>
       </c>
+      <c r="AG45" s="3">
+        <f>Q12*2</f>
+        <v>18</v>
+      </c>
       <c r="AH45" s="3">
-        <f t="shared" si="15"/>
-        <v>18</v>
+        <f>K45*2</f>
+        <v>208</v>
       </c>
       <c r="AI45" s="3">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
@@ -14954,13 +15569,17 @@
         <f t="shared" si="13"/>
         <v>96.1</v>
       </c>
+      <c r="AG46" s="3">
+        <f>Q13*2</f>
+        <v>16</v>
+      </c>
       <c r="AH46" s="3">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f>K46*2</f>
+        <v>203</v>
       </c>
       <c r="AI46" s="3">
         <f t="shared" si="14"/>
-        <v>203</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
@@ -15025,13 +15644,17 @@
         <f t="shared" si="13"/>
         <v>91.8</v>
       </c>
+      <c r="AG47" s="3">
+        <f>Q14*2</f>
+        <v>14</v>
+      </c>
       <c r="AH47" s="3">
-        <f t="shared" si="15"/>
-        <v>14</v>
+        <f>K47*2</f>
+        <v>194</v>
       </c>
       <c r="AI47" s="3">
         <f t="shared" si="14"/>
-        <v>194</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
@@ -15096,13 +15719,17 @@
         <f t="shared" si="13"/>
         <v>84.2</v>
       </c>
+      <c r="AG48" s="3">
+        <f>Q15*2</f>
+        <v>12</v>
+      </c>
       <c r="AH48" s="3">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f>K48*2</f>
+        <v>182</v>
       </c>
       <c r="AI48" s="3">
         <f t="shared" si="14"/>
-        <v>182</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
@@ -15167,13 +15794,17 @@
         <f t="shared" si="13"/>
         <v>69.2</v>
       </c>
+      <c r="AG49" s="3">
+        <f>Q16*2</f>
+        <v>10</v>
+      </c>
       <c r="AH49" s="3">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f>K49*2</f>
+        <v>154</v>
       </c>
       <c r="AI49" s="3">
         <f t="shared" si="14"/>
-        <v>154</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
@@ -15238,13 +15869,17 @@
         <f>SUM(C50,G50,K50,O50,S50)/5</f>
         <v>59.6</v>
       </c>
+      <c r="AG50" s="3">
+        <f>Q17*2</f>
+        <v>9</v>
+      </c>
       <c r="AH50" s="3">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f>K50*2</f>
+        <v>134</v>
       </c>
       <c r="AI50" s="3">
         <f t="shared" si="14"/>
-        <v>134</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
@@ -15309,13 +15944,17 @@
         <f>SUM(C51,G51,K51,O51,S51)/4</f>
         <v>67.875</v>
       </c>
+      <c r="AG51" s="3">
+        <f>Q18*2</f>
+        <v>8</v>
+      </c>
       <c r="AH51" s="3">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f>K51*2</f>
+        <v>128</v>
       </c>
       <c r="AI51" s="3">
         <f t="shared" si="14"/>
-        <v>128</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
@@ -15380,13 +16019,17 @@
         <f>SUM(C52,G52,K52,O52,S52)/4</f>
         <v>60.125</v>
       </c>
+      <c r="AG52" s="3">
+        <f>Q19*2</f>
+        <v>7</v>
+      </c>
       <c r="AH52" s="3">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f>K52*2</f>
+        <v>112</v>
       </c>
       <c r="AI52" s="3">
         <f t="shared" si="14"/>
-        <v>112</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
@@ -15448,16 +16091,20 @@
         <v>3</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" ref="U53:U54" si="16">SUM(C53,G53,K53,O53,S53)/5</f>
+        <f t="shared" ref="U53:U54" si="15">SUM(C53,G53,K53,O53,S53)/5</f>
         <v>41.6</v>
       </c>
+      <c r="AG53" s="3">
+        <f>Q20*2</f>
+        <v>6</v>
+      </c>
       <c r="AH53" s="3">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f>K53*2</f>
+        <v>96</v>
       </c>
       <c r="AI53" s="3">
         <f t="shared" si="14"/>
-        <v>96</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
@@ -15519,16 +16166,20 @@
         <v>2.5</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>38.9</v>
       </c>
+      <c r="AG54" s="3">
+        <f>Q21*2</f>
+        <v>5</v>
+      </c>
       <c r="AH54" s="3">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f>K54*2</f>
+        <v>90</v>
       </c>
       <c r="AI54" s="3">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
@@ -15593,13 +16244,17 @@
         <f>SUM(C55,G55,K55,O55,S55)/4</f>
         <v>42.5</v>
       </c>
+      <c r="AG55" s="3">
+        <f>Q22*2</f>
+        <v>4.5</v>
+      </c>
       <c r="AH55" s="3">
-        <f t="shared" si="15"/>
-        <v>4.5</v>
+        <f>K55*2</f>
+        <v>80</v>
       </c>
       <c r="AI55" s="3">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
@@ -15661,16 +16316,20 @@
         <v>2</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" ref="U56:U57" si="17">SUM(C56,G56,K56,O56,S56)/5</f>
+        <f t="shared" ref="U56:U57" si="16">SUM(C56,G56,K56,O56,S56)/5</f>
         <v>29.4</v>
       </c>
+      <c r="AG56" s="3">
+        <f>Q23*2</f>
+        <v>4</v>
+      </c>
       <c r="AH56" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f>K56*2</f>
+        <v>69</v>
       </c>
       <c r="AI56" s="3">
         <f t="shared" si="14"/>
-        <v>69</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
@@ -15732,16 +16391,20 @@
         <v>1.75</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>25.7</v>
       </c>
+      <c r="AG57" s="3">
+        <f>Q24*2</f>
+        <v>3.5</v>
+      </c>
       <c r="AH57" s="3">
-        <f t="shared" si="15"/>
-        <v>3.5</v>
+        <f>K57*2</f>
+        <v>60</v>
       </c>
       <c r="AI57" s="3">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
@@ -15806,13 +16469,17 @@
         <f>SUM(C58,G58,K58,O58,S58)/4</f>
         <v>28.5</v>
       </c>
+      <c r="AG58" s="3">
+        <f>Q25*2</f>
+        <v>3</v>
+      </c>
       <c r="AH58" s="3">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>K58*2</f>
+        <v>56</v>
       </c>
       <c r="AI58" s="3">
         <f t="shared" si="14"/>
-        <v>56</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
@@ -15874,16 +16541,20 @@
         <v>1.25</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" ref="U59" si="18">SUM(C59,G59,K59,O59,S59)/5</f>
+        <f t="shared" ref="U59" si="17">SUM(C59,G59,K59,O59,S59)/5</f>
         <v>20.6</v>
       </c>
+      <c r="AG59" s="3">
+        <f>Q26*2</f>
+        <v>2.5</v>
+      </c>
       <c r="AH59" s="3">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
+        <f>K59*2</f>
+        <v>50</v>
       </c>
       <c r="AI59" s="3">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
@@ -15948,13 +16619,17 @@
         <f>SUM(C60,G60,K60,O60,S60)/4</f>
         <v>21.75</v>
       </c>
+      <c r="AG60" s="3">
+        <f>Q27*2</f>
+        <v>2</v>
+      </c>
       <c r="AH60" s="3">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>K60*2</f>
+        <v>42</v>
       </c>
       <c r="AI60" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
@@ -16019,13 +16694,17 @@
         <f>SUM(C61,G61,K61,O61,S61)/4</f>
         <v>15.25</v>
       </c>
+      <c r="AG61" s="3">
+        <f>Q28*2</f>
+        <v>1.5</v>
+      </c>
       <c r="AH61" s="3">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f>K61*2</f>
+        <v>28</v>
       </c>
       <c r="AI61" s="3">
         <f t="shared" si="14"/>
-        <v>28</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
@@ -16087,16 +16766,20 @@
         <v>0.5</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" ref="U62:U64" si="19">SUM(C62,G62,K62,O62,S62)/5</f>
+        <f t="shared" ref="U62:U64" si="18">SUM(C62,G62,K62,O62,S62)/5</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="AG62" s="3">
+        <f>Q29*2</f>
+        <v>1</v>
+      </c>
       <c r="AH62" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>K62*2</f>
+        <v>20</v>
       </c>
       <c r="AI62" s="3">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
@@ -16158,16 +16841,20 @@
         <v>0.25</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4.4000000000000004</v>
       </c>
+      <c r="AG63" s="3">
+        <f>Q30*2</f>
+        <v>0.5</v>
+      </c>
       <c r="AH63" s="3">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
+        <f>K63*2</f>
+        <v>10</v>
       </c>
       <c r="AI63" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
@@ -16229,16 +16916,20 @@
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AG64" s="3">
+        <f>Q31*2</f>
+        <v>0</v>
+      </c>
       <c r="AH64" s="3">
-        <f t="shared" si="15"/>
+        <f>K64*2</f>
         <v>0</v>
       </c>
       <c r="AI64" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
@@ -16334,8 +17025,8 @@
         <v>550</v>
       </c>
       <c r="C71" s="3">
-        <f>B71-$B$78</f>
-        <v>60</v>
+        <f>B71-$B$80</f>
+        <v>93</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
@@ -16345,8 +17036,8 @@
         <v>563</v>
       </c>
       <c r="G71" s="3">
-        <f>F71-$F$90</f>
-        <v>91</v>
+        <f>F71-$F$92</f>
+        <v>101</v>
       </c>
       <c r="I71">
         <v>20</v>
@@ -16383,8 +17074,8 @@
         <v>547</v>
       </c>
       <c r="C72" s="3">
-        <f>B72-$B$78</f>
-        <v>57</v>
+        <f t="shared" ref="C72:C80" si="19">B72-$B$80</f>
+        <v>90</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
@@ -16394,8 +17085,8 @@
         <v>561</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ref="G72:G91" si="20">F72-$F$90</f>
-        <v>89</v>
+        <f t="shared" ref="G72:G92" si="20">F72-$F$92</f>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -16406,8 +17097,8 @@
         <v>543</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C78" si="21">B73-$B$78</f>
-        <v>53</v>
+        <f t="shared" si="19"/>
+        <v>86</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
@@ -16418,7 +17109,7 @@
       </c>
       <c r="G73" s="3">
         <f t="shared" si="20"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P73" t="s">
         <v>29</v>
@@ -16432,8 +17123,8 @@
         <v>539</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="21"/>
-        <v>49</v>
+        <f t="shared" si="19"/>
+        <v>82</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3">
@@ -16444,7 +17135,7 @@
       </c>
       <c r="G74" s="3">
         <f t="shared" si="20"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Q74" t="s">
         <v>27</v>
@@ -16473,8 +17164,8 @@
         <v>537</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="21"/>
-        <v>47</v>
+        <f t="shared" si="19"/>
+        <v>80</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3">
@@ -16485,7 +17176,7 @@
       </c>
       <c r="G75" s="3">
         <f t="shared" si="20"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P75" t="s">
         <v>10</v>
@@ -16532,8 +17223,8 @@
         <v>531</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="21"/>
-        <v>41</v>
+        <f t="shared" si="19"/>
+        <v>74</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3">
@@ -16544,7 +17235,7 @@
       </c>
       <c r="G76" s="3">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P76" t="s">
         <v>20</v>
@@ -16594,8 +17285,8 @@
         <v>500</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="21"/>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>43</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3">
@@ -16606,7 +17297,7 @@
       </c>
       <c r="G77" s="3">
         <f t="shared" si="20"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -16628,8 +17319,8 @@
         <v>490</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>33</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3">
@@ -16640,17 +17331,17 @@
       </c>
       <c r="G78" s="3">
         <f t="shared" si="20"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
       <c r="Q78">
-        <f t="shared" ref="Q78:Q97" si="22">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+        <f t="shared" ref="Q78:Q97" si="21">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
         <v>2.7436500000000001</v>
       </c>
       <c r="R78">
-        <f t="shared" ref="R78:R97" si="23">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+        <f t="shared" ref="R78:R97" si="22">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
         <v>2.7360999999999995</v>
       </c>
       <c r="S78">
@@ -16698,8 +17389,8 @@
         <v>480</v>
       </c>
       <c r="C79" s="3">
-        <f>B79-$B$78</f>
-        <v>-10</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3">
@@ -16710,49 +17401,49 @@
       </c>
       <c r="G79" s="3">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P79">
         <v>10</v>
       </c>
       <c r="Q79">
+        <f t="shared" si="21"/>
+        <v>3.0949</v>
+      </c>
+      <c r="R79">
         <f t="shared" si="22"/>
-        <v>3.0949</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="23"/>
         <v>3.6240999999999994</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79:S97" si="24">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
+        <f t="shared" ref="S79:S97" si="23">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
         <v>2.7105250000000001E-2</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79:T97" si="25">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
+        <f t="shared" ref="T79:T97" si="24">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
         <v>2.6410999999999997E-2</v>
       </c>
       <c r="W79" t="e">
-        <f t="shared" ref="W79:W97" si="26">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="W79:W97" si="25">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="X79" t="e">
-        <f t="shared" ref="X79:X97" si="27">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="X79:X97" si="26">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Y79" t="e">
-        <f t="shared" ref="Y79:Y97" si="28">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="Y79:Y97" si="27">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Z79" t="e">
-        <f t="shared" ref="Z79:Z97" si="29">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="Z79:Z97" si="28">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AA79" t="e">
-        <f t="shared" ref="AA79:AA97" si="30">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="AA79:AA97" si="29">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AB79" t="e">
-        <f t="shared" ref="AB79:AB94" si="31">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="AB79:AB94" si="30">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -16764,8 +17455,8 @@
         <v>457</v>
       </c>
       <c r="C80" s="3">
-        <f>B80-$B$78+1</f>
-        <v>-32</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3">
@@ -16776,49 +17467,49 @@
       </c>
       <c r="G80" s="3">
         <f t="shared" si="20"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P80">
         <v>15</v>
       </c>
       <c r="Q80">
+        <f t="shared" si="21"/>
+        <v>3.3361499999999999</v>
+      </c>
+      <c r="R80">
         <f t="shared" si="22"/>
-        <v>3.3361499999999999</v>
-      </c>
-      <c r="R80">
+        <v>4.192099999999999</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="23"/>
-        <v>4.192099999999999</v>
-      </c>
-      <c r="S80">
+        <v>4.3182875000000003E-2</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="24"/>
-        <v>4.3182875000000003E-2</v>
-      </c>
-      <c r="T80">
+        <v>4.5951499999999992E-2</v>
+      </c>
+      <c r="W80">
         <f t="shared" si="25"/>
-        <v>4.5951499999999992E-2</v>
-      </c>
-      <c r="W80">
+        <v>0.85844608887221352</v>
+      </c>
+      <c r="X80">
         <f t="shared" si="26"/>
-        <v>0.85844608887221352</v>
-      </c>
-      <c r="X80">
+        <v>0.78776415786772946</v>
+      </c>
+      <c r="Y80">
         <f t="shared" si="27"/>
-        <v>0.78776415786772946</v>
-      </c>
-      <c r="Y80">
+        <v>0.95392282182574906</v>
+      </c>
+      <c r="Z80">
         <f t="shared" si="28"/>
-        <v>0.95392282182574906</v>
-      </c>
-      <c r="Z80">
+        <v>0.87537961690012545</v>
+      </c>
+      <c r="AA80">
         <f t="shared" si="29"/>
-        <v>0.87537961690012545</v>
-      </c>
-      <c r="AA80">
+        <v>1.3490505920831879</v>
+      </c>
+      <c r="AB80">
         <f t="shared" si="30"/>
-        <v>1.3490505920831879</v>
-      </c>
-      <c r="AB80">
-        <f t="shared" si="31"/>
         <v>1.2379737264451216</v>
       </c>
     </row>
@@ -16835,49 +17526,49 @@
       </c>
       <c r="G81" s="3">
         <f t="shared" si="20"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="P81">
         <v>20</v>
       </c>
       <c r="Q81">
+        <f t="shared" si="21"/>
+        <v>3.4899</v>
+      </c>
+      <c r="R81">
         <f t="shared" si="22"/>
-        <v>3.4899</v>
-      </c>
-      <c r="R81">
+        <v>4.5000999999999989</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="23"/>
-        <v>4.5000999999999989</v>
-      </c>
-      <c r="S81">
+        <v>6.024800000000001E-2</v>
+      </c>
+      <c r="T81">
         <f t="shared" si="24"/>
-        <v>6.024800000000001E-2</v>
-      </c>
-      <c r="T81">
+        <v>6.7681999999999992E-2</v>
+      </c>
+      <c r="W81">
         <f t="shared" si="25"/>
-        <v>6.7681999999999992E-2</v>
-      </c>
-      <c r="W81">
+        <v>1.3429445260322561</v>
+      </c>
+      <c r="X81">
         <f t="shared" si="26"/>
-        <v>1.3429445260322561</v>
-      </c>
-      <c r="X81">
+        <v>1.2323704159485751</v>
+      </c>
+      <c r="Y81">
         <f t="shared" si="27"/>
-        <v>1.2323704159485751</v>
-      </c>
-      <c r="Y81">
+        <v>1.5060295481829031</v>
+      </c>
+      <c r="Z81">
         <f t="shared" si="28"/>
-        <v>1.5060295481829031</v>
-      </c>
-      <c r="Z81">
+        <v>1.3820274961085253</v>
+      </c>
+      <c r="AA81">
         <f t="shared" si="29"/>
-        <v>1.3820274961085253</v>
-      </c>
-      <c r="AA81">
+        <v>2.1298474123748865</v>
+      </c>
+      <c r="AB81">
         <f t="shared" si="30"/>
-        <v>2.1298474123748865</v>
-      </c>
-      <c r="AB81">
-        <f t="shared" si="31"/>
         <v>1.9544820285692064</v>
       </c>
       <c r="AE81" t="s">
@@ -16897,49 +17588,49 @@
       </c>
       <c r="G82" s="3">
         <f t="shared" si="20"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P82">
         <v>25</v>
       </c>
       <c r="Q82">
+        <f t="shared" si="21"/>
+        <v>3.5786500000000001</v>
+      </c>
+      <c r="R82">
         <f t="shared" si="22"/>
-        <v>3.5786500000000001</v>
-      </c>
-      <c r="R82">
+        <v>4.6080999999999994</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="23"/>
-        <v>4.6080999999999994</v>
-      </c>
-      <c r="S82">
+        <v>7.7919375000000013E-2</v>
+      </c>
+      <c r="T82">
         <f t="shared" si="24"/>
-        <v>7.7919375000000013E-2</v>
-      </c>
-      <c r="T82">
+        <v>9.0452499999999991E-2</v>
+      </c>
+      <c r="W82">
         <f t="shared" si="25"/>
-        <v>9.0452499999999991E-2</v>
-      </c>
-      <c r="W82">
+        <v>1.7052744463868568</v>
+      </c>
+      <c r="X82">
         <f t="shared" si="26"/>
-        <v>1.7052744463868568</v>
-      </c>
-      <c r="X82">
+        <v>1.5648671542742267</v>
+      </c>
+      <c r="Y82">
         <f t="shared" si="27"/>
-        <v>1.5648671542742267</v>
-      </c>
-      <c r="Y82">
+        <v>1.9212707383396019</v>
+      </c>
+      <c r="Z82">
         <f t="shared" si="28"/>
-        <v>1.9212707383396019</v>
-      </c>
-      <c r="Z82">
+        <v>1.7630789456008633</v>
+      </c>
+      <c r="AA82">
         <f t="shared" si="29"/>
-        <v>1.7630789456008633</v>
-      </c>
-      <c r="AA82">
+        <v>2.7170871351504351</v>
+      </c>
+      <c r="AB82">
         <f t="shared" si="30"/>
-        <v>2.7170871351504351</v>
-      </c>
-      <c r="AB82">
-        <f t="shared" si="31"/>
         <v>2.4933701564031971</v>
       </c>
     </row>
@@ -16956,49 +17647,49 @@
       </c>
       <c r="G83" s="3">
         <f t="shared" si="20"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P83">
         <v>30</v>
       </c>
       <c r="Q83">
+        <f t="shared" si="21"/>
+        <v>3.6249000000000002</v>
+      </c>
+      <c r="R83">
         <f t="shared" si="22"/>
-        <v>3.6249000000000002</v>
-      </c>
-      <c r="R83">
+        <v>4.5760999999999976</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="23"/>
-        <v>4.5760999999999976</v>
-      </c>
-      <c r="S83">
+        <v>9.592825000000002E-2</v>
+      </c>
+      <c r="T83">
         <f t="shared" si="24"/>
-        <v>9.592825000000002E-2</v>
-      </c>
-      <c r="T83">
+        <v>0.11341299999999999</v>
+      </c>
+      <c r="W83">
         <f t="shared" si="25"/>
-        <v>0.11341299999999999</v>
-      </c>
-      <c r="W83">
+        <v>2.0083614278809483</v>
+      </c>
+      <c r="X83">
         <f t="shared" si="26"/>
-        <v>2.0083614278809483</v>
-      </c>
-      <c r="X83">
+        <v>1.8429988434185482</v>
+      </c>
+      <c r="Y83">
         <f t="shared" si="27"/>
-        <v>1.8429988434185482</v>
-      </c>
-      <c r="Y83">
+        <v>2.26413614873311</v>
+      </c>
+      <c r="Z83">
         <f t="shared" si="28"/>
-        <v>2.26413614873311</v>
-      </c>
-      <c r="Z83">
+        <v>2.077713824577895</v>
+      </c>
+      <c r="AA83">
         <f t="shared" si="29"/>
-        <v>2.077713824577895</v>
-      </c>
-      <c r="AA83">
+        <v>3.2019720485975509</v>
+      </c>
+      <c r="AB83">
         <f t="shared" si="30"/>
-        <v>3.2019720485975509</v>
-      </c>
-      <c r="AB83">
-        <f t="shared" si="31"/>
         <v>2.9383310694481328</v>
       </c>
     </row>
@@ -17015,49 +17706,49 @@
       </c>
       <c r="G84" s="3">
         <f t="shared" si="20"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P84">
         <v>35</v>
       </c>
       <c r="Q84">
+        <f t="shared" si="21"/>
+        <v>3.6511500000000003</v>
+      </c>
+      <c r="R84">
         <f t="shared" si="22"/>
-        <v>3.6511500000000003</v>
-      </c>
-      <c r="R84">
+        <v>4.4640999999999966</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="23"/>
-        <v>4.4640999999999966</v>
-      </c>
-      <c r="S84">
+        <v>0.11411837500000002</v>
+      </c>
+      <c r="T84">
         <f t="shared" si="24"/>
-        <v>0.11411837500000002</v>
-      </c>
-      <c r="T84">
+        <v>0.13601349999999998</v>
+      </c>
+      <c r="W84">
         <f t="shared" si="25"/>
-        <v>0.13601349999999998</v>
-      </c>
-      <c r="W84">
+        <v>2.2738510147984634</v>
+      </c>
+      <c r="X84">
         <f t="shared" si="26"/>
-        <v>2.2738510147984634</v>
-      </c>
-      <c r="X84">
+        <v>2.0866287970892441</v>
+      </c>
+      <c r="Y84">
         <f t="shared" si="27"/>
-        <v>2.0866287970892441</v>
-      </c>
-      <c r="Y84">
+        <v>2.5571162957519156</v>
+      </c>
+      <c r="Z84">
         <f t="shared" si="28"/>
-        <v>2.5571162957519156</v>
-      </c>
-      <c r="Z84">
+        <v>2.3465708463291928</v>
+      </c>
+      <c r="AA84">
         <f t="shared" si="29"/>
-        <v>2.3465708463291928</v>
-      </c>
-      <c r="AA84">
+        <v>3.6163085460176094</v>
+      </c>
+      <c r="AB84">
         <f t="shared" si="30"/>
-        <v>3.6163085460176094</v>
-      </c>
-      <c r="AB84">
-        <f t="shared" si="31"/>
         <v>3.3185523159480561</v>
       </c>
     </row>
@@ -17074,49 +17765,49 @@
       </c>
       <c r="G85" s="3">
         <f t="shared" si="20"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P85">
         <v>40</v>
       </c>
       <c r="Q85">
+        <f t="shared" si="21"/>
+        <v>3.6798999999999999</v>
+      </c>
+      <c r="R85">
         <f t="shared" si="22"/>
-        <v>3.6798999999999999</v>
-      </c>
-      <c r="R85">
+        <v>4.332099999999997</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="23"/>
-        <v>4.332099999999997</v>
-      </c>
-      <c r="S85">
+        <v>0.13244600000000001</v>
+      </c>
+      <c r="T85">
         <f t="shared" si="24"/>
-        <v>0.13244600000000001</v>
-      </c>
-      <c r="T85">
+        <v>0.15800399999999998</v>
+      </c>
+      <c r="W85">
         <f t="shared" si="25"/>
-        <v>0.15800399999999998</v>
-      </c>
-      <c r="W85">
+        <v>2.513140465632592</v>
+      </c>
+      <c r="X85">
         <f t="shared" si="26"/>
-        <v>2.513140465632592</v>
-      </c>
-      <c r="X85">
+        <v>2.3062158569716256</v>
+      </c>
+      <c r="Y85">
         <f t="shared" si="27"/>
-        <v>2.3062158569716256</v>
-      </c>
-      <c r="Y85">
+        <v>2.8130499462327356</v>
+      </c>
+      <c r="Z85">
         <f t="shared" si="28"/>
-        <v>2.8130499462327356</v>
-      </c>
-      <c r="Z85">
+        <v>2.5814316713181098</v>
+      </c>
+      <c r="AA85">
         <f t="shared" si="29"/>
-        <v>2.5814316713181098</v>
-      </c>
-      <c r="AA85">
+        <v>3.9782533855952407</v>
+      </c>
+      <c r="AB85">
         <f t="shared" si="30"/>
-        <v>3.9782533855952407</v>
-      </c>
-      <c r="AB85">
-        <f t="shared" si="31"/>
         <v>3.6506956799175168</v>
       </c>
     </row>
@@ -17133,49 +17824,49 @@
       </c>
       <c r="G86" s="3">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P86">
         <v>45</v>
       </c>
       <c r="Q86">
+        <f t="shared" si="21"/>
+        <v>3.7336500000000004</v>
+      </c>
+      <c r="R86">
         <f t="shared" si="22"/>
-        <v>3.7336500000000004</v>
-      </c>
-      <c r="R86">
+        <v>4.2401</v>
+      </c>
+      <c r="S86">
         <f t="shared" si="23"/>
-        <v>4.2401</v>
-      </c>
-      <c r="S86">
+        <v>0.15097987500000001</v>
+      </c>
+      <c r="T86">
         <f t="shared" si="24"/>
-        <v>0.15097987500000001</v>
-      </c>
-      <c r="T86">
+        <v>0.17943449999999997</v>
+      </c>
+      <c r="W86">
         <f t="shared" si="25"/>
-        <v>0.17943449999999997</v>
-      </c>
-      <c r="W86">
+        <v>2.7339060312124848</v>
+      </c>
+      <c r="X86">
         <f t="shared" si="26"/>
-        <v>2.7339060312124848</v>
-      </c>
-      <c r="X86">
+        <v>2.5088042339350687</v>
+      </c>
+      <c r="Y86">
         <f t="shared" si="27"/>
-        <v>2.5088042339350687</v>
-      </c>
-      <c r="Y86">
+        <v>3.041817918613801</v>
+      </c>
+      <c r="Z86">
         <f t="shared" si="28"/>
-        <v>3.041817918613801</v>
-      </c>
-      <c r="Z86">
+        <v>2.7913635603976399</v>
+      </c>
+      <c r="AA86">
         <f t="shared" si="29"/>
-        <v>2.7913635603976399</v>
-      </c>
-      <c r="AA86">
+        <v>4.3017801547731374</v>
+      </c>
+      <c r="AB86">
         <f t="shared" si="30"/>
-        <v>4.3017801547731374</v>
-      </c>
-      <c r="AB86">
-        <f t="shared" si="31"/>
         <v>3.947584204628392</v>
       </c>
     </row>
@@ -17192,49 +17883,49 @@
       </c>
       <c r="G87" s="3">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P87">
         <v>50</v>
       </c>
       <c r="Q87">
+        <f t="shared" si="21"/>
+        <v>3.8349000000000002</v>
+      </c>
+      <c r="R87">
         <f t="shared" si="22"/>
-        <v>3.8349000000000002</v>
-      </c>
-      <c r="R87">
+        <v>4.2480999999999991</v>
+      </c>
+      <c r="S87">
         <f t="shared" si="23"/>
-        <v>4.2480999999999991</v>
-      </c>
-      <c r="S87">
+        <v>0.16990125</v>
+      </c>
+      <c r="T87">
         <f t="shared" si="24"/>
-        <v>0.16990125</v>
-      </c>
-      <c r="T87">
+        <v>0.20065499999999997</v>
+      </c>
+      <c r="W87">
         <f t="shared" si="25"/>
-        <v>0.20065499999999997</v>
-      </c>
-      <c r="W87">
+        <v>2.9422488210550788</v>
+      </c>
+      <c r="X87">
         <f t="shared" si="26"/>
-        <v>2.9422488210550788</v>
-      </c>
-      <c r="X87">
+        <v>2.699992690048584</v>
+      </c>
+      <c r="Y87">
         <f t="shared" si="27"/>
-        <v>2.699992690048584</v>
-      </c>
-      <c r="Y87">
+        <v>3.2525278630628205</v>
+      </c>
+      <c r="Z87">
         <f t="shared" si="28"/>
-        <v>3.2525278630628205</v>
-      </c>
-      <c r="Z87">
+        <v>2.9847242665560283</v>
+      </c>
+      <c r="AA87">
         <f t="shared" si="29"/>
-        <v>2.9847242665560283</v>
-      </c>
-      <c r="AA87">
+        <v>4.5997690159398221</v>
+      </c>
+      <c r="AB87">
         <f t="shared" si="30"/>
-        <v>4.5997690159398221</v>
-      </c>
-      <c r="AB87">
-        <f t="shared" si="31"/>
         <v>4.2210375377076241</v>
       </c>
     </row>
@@ -17251,49 +17942,49 @@
       </c>
       <c r="G88" s="3">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P88">
         <v>55</v>
       </c>
       <c r="Q88">
+        <f t="shared" si="21"/>
+        <v>4.0061500000000008</v>
+      </c>
+      <c r="R88">
         <f t="shared" si="22"/>
-        <v>4.0061500000000008</v>
-      </c>
-      <c r="R88">
+        <v>4.4160999999999984</v>
+      </c>
+      <c r="S88">
         <f t="shared" si="23"/>
-        <v>4.4160999999999984</v>
-      </c>
-      <c r="S88">
+        <v>0.18950387500000002</v>
+      </c>
+      <c r="T88">
         <f t="shared" si="24"/>
-        <v>0.18950387500000002</v>
-      </c>
-      <c r="T88">
+        <v>0.22231549999999997</v>
+      </c>
+      <c r="W88">
         <f t="shared" si="25"/>
-        <v>0.22231549999999997</v>
-      </c>
-      <c r="W88">
+        <v>3.1435636127649778</v>
+      </c>
+      <c r="X88">
         <f t="shared" si="26"/>
-        <v>3.1435636127649778</v>
-      </c>
-      <c r="X88">
+        <v>2.8847318127650876</v>
+      </c>
+      <c r="Y88">
         <f t="shared" si="27"/>
-        <v>2.8847318127650876</v>
-      </c>
-      <c r="Y88">
+        <v>3.454376752758737</v>
+      </c>
+      <c r="Z88">
         <f t="shared" si="28"/>
-        <v>3.454376752758737</v>
-      </c>
-      <c r="Z88">
+        <v>3.1699535111982153</v>
+      </c>
+      <c r="AA88">
         <f t="shared" si="29"/>
-        <v>3.1699535111982153</v>
-      </c>
-      <c r="AA88">
+        <v>4.8852264532977383</v>
+      </c>
+      <c r="AB88">
         <f t="shared" si="30"/>
-        <v>4.8852264532977383</v>
-      </c>
-      <c r="AB88">
-        <f t="shared" si="31"/>
         <v>4.4829912476287292</v>
       </c>
     </row>
@@ -17310,49 +18001,49 @@
       </c>
       <c r="G89" s="3">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P89">
         <v>60</v>
       </c>
       <c r="Q89">
+        <f t="shared" si="21"/>
+        <v>4.2699000000000007</v>
+      </c>
+      <c r="R89">
         <f t="shared" si="22"/>
-        <v>4.2699000000000007</v>
-      </c>
-      <c r="R89">
+        <v>4.8040999999999947</v>
+      </c>
+      <c r="S89">
         <f t="shared" si="23"/>
-        <v>4.8040999999999947</v>
-      </c>
-      <c r="S89">
+        <v>0.21019400000000002</v>
+      </c>
+      <c r="T89">
         <f t="shared" si="24"/>
-        <v>0.21019400000000002</v>
-      </c>
-      <c r="T89">
+        <v>0.24536599999999995</v>
+      </c>
+      <c r="W89">
         <f t="shared" si="25"/>
-        <v>0.24536599999999995</v>
-      </c>
-      <c r="W89">
+        <v>3.3429216263621857</v>
+      </c>
+      <c r="X89">
         <f t="shared" si="26"/>
-        <v>3.3429216263621857</v>
-      </c>
-      <c r="X89">
+        <v>3.0676752727346108</v>
+      </c>
+      <c r="Y89">
         <f t="shared" si="27"/>
-        <v>3.0676752727346108</v>
-      </c>
-      <c r="Y89">
+        <v>3.6569625374072396</v>
+      </c>
+      <c r="Z89">
         <f t="shared" si="28"/>
-        <v>3.6569625374072396</v>
-      </c>
-      <c r="Z89">
+        <v>3.3558589770257345</v>
+      </c>
+      <c r="AA89">
         <f t="shared" si="29"/>
-        <v>3.3558589770257345</v>
-      </c>
-      <c r="AA89">
+        <v>5.1717260174916451</v>
+      </c>
+      <c r="AB89">
         <f t="shared" si="30"/>
-        <v>5.1717260174916451</v>
-      </c>
-      <c r="AB89">
-        <f t="shared" si="31"/>
         <v>4.745901278721294</v>
       </c>
     </row>
@@ -17369,49 +18060,49 @@
       </c>
       <c r="G90" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P90">
         <v>65</v>
       </c>
       <c r="Q90">
+        <f t="shared" si="21"/>
+        <v>4.6486499999999999</v>
+      </c>
+      <c r="R90">
         <f t="shared" si="22"/>
-        <v>4.6486499999999999</v>
-      </c>
-      <c r="R90">
+        <v>5.4721000000000011</v>
+      </c>
+      <c r="S90">
         <f t="shared" si="23"/>
-        <v>5.4721000000000011</v>
-      </c>
-      <c r="S90">
+        <v>0.23249037500000003</v>
+      </c>
+      <c r="T90">
         <f t="shared" si="24"/>
-        <v>0.23249037500000003</v>
-      </c>
-      <c r="T90">
+        <v>0.27105649999999992</v>
+      </c>
+      <c r="W90">
         <f t="shared" si="25"/>
-        <v>0.27105649999999992</v>
-      </c>
-      <c r="W90">
+        <v>3.5452289682755334</v>
+      </c>
+      <c r="X90">
         <f t="shared" si="26"/>
-        <v>3.5452289682755334</v>
-      </c>
-      <c r="X90">
+        <v>3.253325221984424</v>
+      </c>
+      <c r="Y90">
         <f t="shared" si="27"/>
-        <v>3.253325221984424</v>
-      </c>
-      <c r="Y90">
+        <v>3.8702753455019185</v>
+      </c>
+      <c r="Z90">
         <f t="shared" si="28"/>
-        <v>3.8702753455019185</v>
-      </c>
-      <c r="Z90">
+        <v>3.5516082346778588</v>
+      </c>
+      <c r="AA90">
         <f t="shared" si="29"/>
-        <v>3.5516082346778588</v>
-      </c>
-      <c r="AA90">
+        <v>5.4733958837270293</v>
+      </c>
+      <c r="AB90">
         <f t="shared" si="30"/>
-        <v>5.4733958837270293</v>
-      </c>
-      <c r="AB90">
-        <f t="shared" si="31"/>
         <v>5.0227325337173934</v>
       </c>
     </row>
@@ -17428,49 +18119,49 @@
       </c>
       <c r="G91" s="3">
         <f t="shared" si="20"/>
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="P91">
         <v>70</v>
       </c>
       <c r="Q91">
+        <f t="shared" si="21"/>
+        <v>5.1649000000000012</v>
+      </c>
+      <c r="R91">
         <f t="shared" si="22"/>
-        <v>5.1649000000000012</v>
-      </c>
-      <c r="R91">
+        <v>6.4800999999999931</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="23"/>
-        <v>6.4800999999999931</v>
-      </c>
-      <c r="S91">
+        <v>0.25702425000000001</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="24"/>
-        <v>0.25702425000000001</v>
-      </c>
-      <c r="T91">
+        <v>0.3009369999999999</v>
+      </c>
+      <c r="W91">
         <f t="shared" si="25"/>
-        <v>0.3009369999999999</v>
-      </c>
-      <c r="W91">
+        <v>3.7552650538943322</v>
+      </c>
+      <c r="X91">
         <f t="shared" si="26"/>
-        <v>3.7552650538943322</v>
-      </c>
-      <c r="X91">
+        <v>3.4460675528705713</v>
+      </c>
+      <c r="Y91">
         <f t="shared" si="27"/>
-        <v>3.4460675528705713</v>
-      </c>
-      <c r="Y91">
+        <v>4.1044564195518012</v>
+      </c>
+      <c r="Z91">
         <f t="shared" si="28"/>
-        <v>4.1044564195518012</v>
-      </c>
-      <c r="Z91">
+        <v>3.76650752652486</v>
+      </c>
+      <c r="AA91">
         <f t="shared" si="29"/>
-        <v>3.76650752652486</v>
-      </c>
-      <c r="AA91">
+        <v>5.8045779346994717</v>
+      </c>
+      <c r="AB91">
         <f t="shared" si="30"/>
-        <v>5.8045779346994717</v>
-      </c>
-      <c r="AB91">
-        <f t="shared" si="31"/>
         <v>5.3266460267917966</v>
       </c>
     </row>
@@ -17486,50 +18177,50 @@
         <v>462</v>
       </c>
       <c r="G92" s="3">
-        <f>F92-$F$90+1</f>
-        <v>-9</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="P92">
         <v>75</v>
       </c>
       <c r="Q92">
+        <f t="shared" si="21"/>
+        <v>5.8411500000000007</v>
+      </c>
+      <c r="R92">
         <f t="shared" si="22"/>
-        <v>5.8411500000000007</v>
-      </c>
-      <c r="R92">
+        <v>7.8880999999999979</v>
+      </c>
+      <c r="S92">
         <f t="shared" si="23"/>
-        <v>7.8880999999999979</v>
-      </c>
-      <c r="S92">
+        <v>0.28453937500000004</v>
+      </c>
+      <c r="T92">
         <f t="shared" si="24"/>
-        <v>0.28453937500000004</v>
-      </c>
-      <c r="T92">
+        <v>0.33685749999999987</v>
+      </c>
+      <c r="W92">
         <f t="shared" si="25"/>
-        <v>0.33685749999999987</v>
-      </c>
-      <c r="W92">
+        <v>3.9776514348922034</v>
+      </c>
+      <c r="X92">
         <f t="shared" si="26"/>
-        <v>3.9776514348922034</v>
-      </c>
-      <c r="X92">
+        <v>3.6501432920683516</v>
+      </c>
+      <c r="Y92">
         <f t="shared" si="27"/>
-        <v>3.6501432920683516</v>
-      </c>
-      <c r="Y92">
+        <v>4.3693928353948666</v>
+      </c>
+      <c r="Z92">
         <f t="shared" si="28"/>
-        <v>4.3693928353948666</v>
-      </c>
-      <c r="Z92">
+        <v>4.0096298556035519</v>
+      </c>
+      <c r="AA92">
         <f t="shared" si="29"/>
-        <v>4.0096298556035519</v>
-      </c>
-      <c r="AA92">
+        <v>6.1792546071512531</v>
+      </c>
+      <c r="AB92">
         <f t="shared" si="30"/>
-        <v>6.1792546071512531</v>
-      </c>
-      <c r="AB92">
-        <f t="shared" si="31"/>
         <v>5.6704729218906182</v>
       </c>
     </row>
@@ -17538,43 +18229,43 @@
         <v>80</v>
       </c>
       <c r="Q93">
+        <f t="shared" si="21"/>
+        <v>6.6999000000000013</v>
+      </c>
+      <c r="R93">
         <f t="shared" si="22"/>
-        <v>6.6999000000000013</v>
-      </c>
-      <c r="R93">
+        <v>9.7560999999999964</v>
+      </c>
+      <c r="S93">
         <f t="shared" si="23"/>
-        <v>9.7560999999999964</v>
-      </c>
-      <c r="S93">
+        <v>0.31589200000000006</v>
+      </c>
+      <c r="T93">
         <f t="shared" si="24"/>
-        <v>0.31589200000000006</v>
-      </c>
-      <c r="T93">
+        <v>0.38096799999999986</v>
+      </c>
+      <c r="W93">
         <f t="shared" si="25"/>
-        <v>0.38096799999999986</v>
-      </c>
-      <c r="W93">
+        <v>4.2167819483582507</v>
+      </c>
+      <c r="X93">
         <f t="shared" si="26"/>
-        <v>4.2167819483582507</v>
-      </c>
-      <c r="X93">
+        <v>3.8695845010189815</v>
+      </c>
+      <c r="Y93">
         <f t="shared" si="27"/>
-        <v>3.8695845010189815</v>
-      </c>
-      <c r="Y93">
+        <v>4.6742379057981198</v>
+      </c>
+      <c r="Z93">
         <f t="shared" si="28"/>
-        <v>4.6742379057981198</v>
-      </c>
-      <c r="Z93">
+        <v>4.2893748777770941</v>
+      </c>
+      <c r="AA93">
         <f t="shared" si="29"/>
-        <v>4.2893748777770941</v>
-      </c>
-      <c r="AA93">
+        <v>6.6103706401381146</v>
+      </c>
+      <c r="AB93">
         <f t="shared" si="30"/>
-        <v>6.6103706401381146</v>
-      </c>
-      <c r="AB93">
-        <f t="shared" si="31"/>
         <v>6.0660921262548033</v>
       </c>
     </row>
@@ -17583,43 +18274,43 @@
         <v>85</v>
       </c>
       <c r="Q94">
+        <f t="shared" si="21"/>
+        <v>7.7636500000000019</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="22"/>
-        <v>7.7636500000000019</v>
-      </c>
-      <c r="R94">
+        <v>12.144099999999995</v>
+      </c>
+      <c r="S94">
         <f t="shared" si="23"/>
-        <v>12.144099999999995</v>
-      </c>
-      <c r="S94">
+        <v>0.3520508750000001</v>
+      </c>
+      <c r="T94">
         <f t="shared" si="24"/>
-        <v>0.3520508750000001</v>
-      </c>
-      <c r="T94">
+        <v>0.43571849999999984</v>
+      </c>
+      <c r="W94">
         <f t="shared" si="25"/>
-        <v>0.43571849999999984</v>
-      </c>
-      <c r="W94">
+        <v>4.4767376165573971</v>
+      </c>
+      <c r="X94">
         <f t="shared" si="26"/>
-        <v>4.4767376165573971</v>
-      </c>
-      <c r="X94">
+        <v>4.1081361825938592</v>
+      </c>
+      <c r="Y94">
         <f t="shared" si="27"/>
-        <v>4.1081361825938592</v>
-      </c>
-      <c r="Y94">
+        <v>5.0269678982464159</v>
+      </c>
+      <c r="Z94">
         <f t="shared" si="28"/>
-        <v>5.0269678982464159</v>
-      </c>
-      <c r="Z94">
+        <v>4.6130621180798279</v>
+      </c>
+      <c r="AA94">
         <f t="shared" si="29"/>
-        <v>4.6130621180798279</v>
-      </c>
-      <c r="AA94">
+        <v>7.1092061793142545</v>
+      </c>
+      <c r="AB94">
         <f t="shared" si="30"/>
-        <v>7.1092061793142545</v>
-      </c>
-      <c r="AB94">
-        <f t="shared" si="31"/>
         <v>6.5238550114580489</v>
       </c>
     </row>
@@ -17628,39 +18319,39 @@
         <v>90</v>
       </c>
       <c r="Q95">
+        <f t="shared" si="21"/>
+        <v>9.0549000000000017</v>
+      </c>
+      <c r="R95">
         <f t="shared" si="22"/>
-        <v>9.0549000000000017</v>
-      </c>
-      <c r="R95">
+        <v>15.112100000000005</v>
+      </c>
+      <c r="S95">
         <f t="shared" si="23"/>
-        <v>15.112100000000005</v>
-      </c>
-      <c r="S95">
+        <v>0.39409725000000012</v>
+      </c>
+      <c r="T95">
         <f t="shared" si="24"/>
-        <v>0.39409725000000012</v>
-      </c>
-      <c r="T95">
+        <v>0.50385899999999983</v>
+      </c>
+      <c r="W95">
         <f t="shared" si="25"/>
-        <v>0.50385899999999983</v>
-      </c>
-      <c r="W95">
+        <v>4.7612055327406324</v>
+      </c>
+      <c r="X95">
         <f t="shared" si="26"/>
-        <v>4.7612055327406324</v>
-      </c>
-      <c r="X95">
+        <v>4.3691818456090852</v>
+      </c>
+      <c r="Y95">
         <f t="shared" si="27"/>
-        <v>4.3691818456090852</v>
-      </c>
-      <c r="Y95">
+        <v>5.4340765084786939</v>
+      </c>
+      <c r="Z95">
         <f t="shared" si="28"/>
-        <v>5.4340765084786939</v>
-      </c>
-      <c r="Z95">
+        <v>4.9866506004056781</v>
+      </c>
+      <c r="AA95">
         <f t="shared" si="29"/>
-        <v>4.9866506004056781</v>
-      </c>
-      <c r="AA95">
-        <f t="shared" si="30"/>
         <v>7.684944697263604</v>
       </c>
       <c r="AB95">
@@ -17673,39 +18364,39 @@
         <v>95</v>
       </c>
       <c r="Q96">
+        <f t="shared" si="21"/>
+        <v>10.596150000000002</v>
+      </c>
+      <c r="R96">
         <f t="shared" si="22"/>
-        <v>10.596150000000002</v>
-      </c>
-      <c r="R96">
+        <v>18.720099999999999</v>
+      </c>
+      <c r="S96">
         <f t="shared" si="23"/>
-        <v>18.720099999999999</v>
-      </c>
-      <c r="S96">
+        <v>0.44322487500000013</v>
+      </c>
+      <c r="T96">
         <f t="shared" si="24"/>
-        <v>0.44322487500000013</v>
-      </c>
-      <c r="T96">
+        <v>0.58843949999999978</v>
+      </c>
+      <c r="W96">
         <f t="shared" si="25"/>
-        <v>0.58843949999999978</v>
-      </c>
-      <c r="W96">
+        <v>5.073416470929625</v>
+      </c>
+      <c r="X96">
         <f t="shared" si="26"/>
-        <v>5.073416470929625</v>
-      </c>
-      <c r="X96">
+        <v>4.6556862516372624</v>
+      </c>
+      <c r="Y96">
         <f t="shared" si="27"/>
-        <v>4.6556862516372624</v>
-      </c>
-      <c r="Y96">
+        <v>5.9004634351887972</v>
+      </c>
+      <c r="Z96">
         <f t="shared" si="28"/>
-        <v>5.9004634351887972</v>
-      </c>
-      <c r="Z96">
+        <v>5.4146365966410155</v>
+      </c>
+      <c r="AA96">
         <f t="shared" si="29"/>
-        <v>5.4146365966410155</v>
-      </c>
-      <c r="AA96">
-        <f t="shared" si="30"/>
         <v>8.3445154143305391</v>
       </c>
       <c r="AB96">
@@ -17718,39 +18409,39 @@
         <v>100</v>
       </c>
       <c r="Q97">
+        <f t="shared" si="21"/>
+        <v>12.4099</v>
+      </c>
+      <c r="R97">
         <f t="shared" si="22"/>
-        <v>12.4099</v>
-      </c>
-      <c r="R97">
+        <v>23.028099999999998</v>
+      </c>
+      <c r="S97">
         <f t="shared" si="23"/>
-        <v>23.028099999999998</v>
-      </c>
-      <c r="S97">
+        <v>0.50074000000000018</v>
+      </c>
+      <c r="T97">
         <f t="shared" si="24"/>
-        <v>0.50074000000000018</v>
-      </c>
-      <c r="T97">
+        <v>0.69280999999999981</v>
+      </c>
+      <c r="W97">
         <f t="shared" si="25"/>
-        <v>0.69280999999999981</v>
-      </c>
-      <c r="W97">
+        <v>5.4161102278295639</v>
+      </c>
+      <c r="X97">
         <f t="shared" si="26"/>
-        <v>5.4161102278295639</v>
-      </c>
-      <c r="X97">
+        <v>4.9701636105654998</v>
+      </c>
+      <c r="Y97">
         <f t="shared" si="27"/>
-        <v>4.9701636105654998</v>
-      </c>
-      <c r="Y97">
+        <v>6.4295120343615491</v>
+      </c>
+      <c r="Z97">
         <f t="shared" si="28"/>
-        <v>6.4295120343615491</v>
-      </c>
-      <c r="Z97">
+        <v>5.9001248871706533</v>
+      </c>
+      <c r="AA97">
         <f t="shared" si="29"/>
-        <v>5.9001248871706533</v>
-      </c>
-      <c r="AA97">
-        <f t="shared" si="30"/>
         <v>9.0927031184351321</v>
       </c>
       <c r="AB97">
@@ -17763,23 +18454,23 @@
         <v>35</v>
       </c>
       <c r="W100">
-        <f t="shared" ref="W100:AA100" si="32">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
+        <f t="shared" ref="W100:AA100" si="31">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
         <v>2.1213137474238475</v>
       </c>
       <c r="X100">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.8361518472553215</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.8430668778456725</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.4532586769452918</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.2279635124640214</v>
       </c>
       <c r="AB100">
@@ -17867,7 +18558,7 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="33">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="32">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
@@ -17887,15 +18578,15 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="34">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="33">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" ref="U108:U170" si="35">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U108:U170" si="34">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
         <v>7.6358455224097641</v>
       </c>
       <c r="V108">
@@ -17911,19 +18602,19 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72835616712494855</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="32"/>
+        <v>3.6100800000000002E-2</v>
+      </c>
+      <c r="U109" s="6">
         <f t="shared" si="34"/>
-        <v>0.72835616712494855</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="33"/>
-        <v>3.6100800000000002E-2</v>
-      </c>
-      <c r="U109" s="6">
-        <f t="shared" si="35"/>
         <v>7.6250190681383652</v>
       </c>
       <c r="V109">
-        <f t="shared" ref="V109:V170" si="36">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
+        <f t="shared" ref="V109:V170" si="35">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
         <v>3.8971013192635948</v>
       </c>
     </row>
@@ -17935,19 +18626,19 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72686912151789163</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="32"/>
+        <v>3.76704E-2</v>
+      </c>
+      <c r="U110" s="6">
         <f t="shared" si="34"/>
-        <v>0.72686912151789163</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="33"/>
-        <v>3.76704E-2</v>
-      </c>
-      <c r="U110" s="6">
+        <v>7.6141772199524018</v>
+      </c>
+      <c r="V110">
         <f t="shared" si="35"/>
-        <v>7.6141772199524018</v>
-      </c>
-      <c r="V110">
-        <f t="shared" si="36"/>
         <v>3.9045324522837372</v>
       </c>
     </row>
@@ -17959,19 +18650,19 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72541272024949111</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="32"/>
+        <v>3.9239999999999997E-2</v>
+      </c>
+      <c r="U111" s="6">
         <f t="shared" si="34"/>
-        <v>0.72541272024949111</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="33"/>
-        <v>3.9239999999999997E-2</v>
-      </c>
-      <c r="U111" s="6">
+        <v>7.6033199119996597</v>
+      </c>
+      <c r="V111">
         <f t="shared" si="35"/>
-        <v>7.6033199119996597</v>
-      </c>
-      <c r="V111">
-        <f t="shared" si="36"/>
         <v>3.9116427138300871</v>
       </c>
     </row>
@@ -17983,19 +18674,19 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72398504503586458</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="32"/>
+        <v>4.0809599999999994E-2</v>
+      </c>
+      <c r="U112" s="6">
         <f t="shared" si="34"/>
-        <v>0.72398504503586458</v>
-      </c>
-      <c r="T112">
-        <f t="shared" si="33"/>
-        <v>4.0809599999999994E-2</v>
-      </c>
-      <c r="U112" s="6">
+        <v>7.5924470779570754</v>
+      </c>
+      <c r="V112">
         <f t="shared" si="35"/>
-        <v>7.5924470779570754</v>
-      </c>
-      <c r="V112">
-        <f t="shared" si="36"/>
         <v>3.9184464447851206</v>
       </c>
     </row>
@@ -18007,19 +18698,19 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72258432403162098</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="32"/>
+        <v>4.2379200000000006E-2</v>
+      </c>
+      <c r="U113" s="6">
         <f t="shared" si="34"/>
-        <v>0.72258432403162098</v>
-      </c>
-      <c r="T113">
-        <f t="shared" si="33"/>
-        <v>4.2379200000000006E-2</v>
-      </c>
-      <c r="U113" s="6">
+        <v>7.5815586510260102</v>
+      </c>
+      <c r="V113">
         <f t="shared" si="35"/>
-        <v>7.5815586510260102</v>
-      </c>
-      <c r="V113">
-        <f t="shared" si="36"/>
         <v>3.9249568658636802</v>
       </c>
     </row>
@@ -18031,15 +18722,15 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72120895122798068</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="32"/>
+        <v>4.3948800000000003E-2</v>
+      </c>
+      <c r="U114" s="6">
         <f t="shared" si="34"/>
-        <v>0.72120895122798068</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="33"/>
-        <v>4.3948800000000003E-2</v>
-      </c>
-      <c r="U114" s="6">
-        <f t="shared" si="35"/>
         <v>7.5706545639274658</v>
       </c>
       <c r="V114">
@@ -18055,19 +18746,19 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71985745837108495</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="32"/>
+        <v>4.5518400000000001E-2</v>
+      </c>
+      <c r="U115" s="6">
         <f t="shared" si="34"/>
-        <v>0.71985745837108495</v>
-      </c>
-      <c r="T115">
-        <f t="shared" si="33"/>
-        <v>4.5518400000000001E-2</v>
-      </c>
-      <c r="U115" s="6">
+        <v>7.5597347488972257</v>
+      </c>
+      <c r="V115">
         <f t="shared" si="35"/>
-        <v>7.5597347488972257</v>
-      </c>
-      <c r="V115">
-        <f t="shared" si="36"/>
         <v>3.9371457591409165</v>
       </c>
     </row>
@@ -18079,19 +18770,19 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71852850240436128</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="32"/>
+        <v>4.7087999999999998E-2</v>
+      </c>
+      <c r="U116" s="6">
         <f t="shared" si="34"/>
-        <v>0.71852850240436128</v>
-      </c>
-      <c r="T116">
-        <f t="shared" si="33"/>
-        <v>4.7087999999999998E-2</v>
-      </c>
-      <c r="U116" s="6">
+        <v>7.5487991376809473</v>
+      </c>
+      <c r="V116">
         <f t="shared" si="35"/>
-        <v>7.5487991376809473</v>
-      </c>
-      <c r="V116">
-        <f t="shared" si="36"/>
         <v>3.9428460671200982</v>
       </c>
     </row>
@@ -18103,19 +18794,19 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71722084809074993</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="32"/>
+        <v>4.8657600000000002E-2</v>
+      </c>
+      <c r="U117" s="6">
         <f t="shared" si="34"/>
-        <v>0.71722084809074993</v>
-      </c>
-      <c r="T117">
-        <f t="shared" si="33"/>
-        <v>4.8657600000000002E-2</v>
-      </c>
-      <c r="U117" s="6">
+        <v>7.5378476615291872</v>
+      </c>
+      <c r="V117">
         <f t="shared" si="35"/>
-        <v>7.5378476615291872</v>
-      </c>
-      <c r="V117">
-        <f t="shared" si="36"/>
         <v>3.9482969053648036</v>
       </c>
     </row>
@@ -18127,19 +18818,19 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71593335959189131</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="32"/>
+        <v>5.02272E-2</v>
+      </c>
+      <c r="U118" s="6">
         <f t="shared" si="34"/>
-        <v>0.71593335959189131</v>
-      </c>
-      <c r="T118">
-        <f t="shared" si="33"/>
-        <v>5.02272E-2</v>
-      </c>
-      <c r="U118" s="6">
+        <v>7.5268802511923525</v>
+      </c>
+      <c r="V118">
         <f t="shared" si="35"/>
-        <v>7.5268802511923525</v>
-      </c>
-      <c r="V118">
-        <f t="shared" si="36"/>
         <v>3.9535073984137048</v>
       </c>
     </row>
@@ -18151,19 +18842,19 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71466498835283931</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="32"/>
+        <v>5.1796800000000004E-2</v>
+      </c>
+      <c r="U119" s="6">
         <f t="shared" si="34"/>
-        <v>0.71466498835283931</v>
-      </c>
-      <c r="T119">
-        <f t="shared" si="33"/>
-        <v>5.1796800000000004E-2</v>
-      </c>
-      <c r="U119" s="6">
+        <v>7.515896836915597</v>
+      </c>
+      <c r="V119">
         <f t="shared" si="35"/>
-        <v>7.515896836915597</v>
-      </c>
-      <c r="V119">
-        <f t="shared" si="36"/>
         <v>3.9584860714647165</v>
       </c>
     </row>
@@ -18175,19 +18866,19 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71341476443689977</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="32"/>
+        <v>5.3366400000000001E-2</v>
+      </c>
+      <c r="U120" s="6">
         <f t="shared" si="34"/>
-        <v>0.71341476443689977</v>
-      </c>
-      <c r="T120">
-        <f t="shared" si="33"/>
-        <v>5.3366400000000001E-2</v>
-      </c>
-      <c r="U120" s="6">
+        <v>7.5048973484336408</v>
+      </c>
+      <c r="V120">
         <f t="shared" si="35"/>
-        <v>7.5048973484336408</v>
-      </c>
-      <c r="V120">
-        <f t="shared" si="36"/>
         <v>3.9632409041733787</v>
       </c>
     </row>
@@ -18199,19 +18890,19 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71218178865764159</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="32"/>
+        <v>5.4935999999999999E-2</v>
+      </c>
+      <c r="U121" s="6">
         <f t="shared" si="34"/>
-        <v>0.71218178865764159</v>
-      </c>
-      <c r="T121">
-        <f t="shared" si="33"/>
-        <v>5.4935999999999999E-2</v>
-      </c>
-      <c r="U121" s="6">
+        <v>7.4938817149655303</v>
+      </c>
+      <c r="V121">
         <f t="shared" si="35"/>
-        <v>7.4938817149655303</v>
-      </c>
-      <c r="V121">
-        <f t="shared" si="36"/>
         <v>3.9677793783799422</v>
       </c>
     </row>
@@ -18223,19 +18914,19 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71096522566934539</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="32"/>
+        <v>5.6505600000000003E-2</v>
+      </c>
+      <c r="U122" s="6">
         <f t="shared" si="34"/>
-        <v>0.71096522566934539</v>
-      </c>
-      <c r="T122">
-        <f t="shared" si="33"/>
-        <v>5.6505600000000003E-2</v>
-      </c>
-      <c r="U122" s="6">
+        <v>7.4828498652093192</v>
+      </c>
+      <c r="V122">
         <f t="shared" si="35"/>
-        <v>7.4828498652093192</v>
-      </c>
-      <c r="V122">
-        <f t="shared" si="36"/>
         <v>3.9721085205826432</v>
       </c>
     </row>
@@ -18247,19 +18938,19 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70976429789284623</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="32"/>
+        <v>5.80752E-2</v>
+      </c>
+      <c r="U123" s="6">
         <f t="shared" si="34"/>
-        <v>0.70976429789284623</v>
-      </c>
-      <c r="T123">
-        <f t="shared" si="33"/>
-        <v>5.80752E-2</v>
-      </c>
-      <c r="U123" s="6">
+        <v>7.4718017273366906</v>
+      </c>
+      <c r="V123">
         <f t="shared" si="35"/>
-        <v>7.4718017273366906</v>
-      </c>
-      <c r="V123">
-        <f t="shared" si="36"/>
         <v>3.976234939847676</v>
       </c>
     </row>
@@ -18271,19 +18962,19 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70857828015022117</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="32"/>
+        <v>5.9644799999999998E-2</v>
+      </c>
+      <c r="U124" s="6">
         <f t="shared" si="34"/>
-        <v>0.70857828015022117</v>
-      </c>
-      <c r="T124">
-        <f t="shared" si="33"/>
-        <v>5.9644799999999998E-2</v>
-      </c>
-      <c r="U124" s="6">
+        <v>7.4607372289874929</v>
+      </c>
+      <c r="V124">
         <f t="shared" si="35"/>
-        <v>7.4607372289874929</v>
-      </c>
-      <c r="V124">
-        <f t="shared" si="36"/>
         <v>3.9801648617415704</v>
       </c>
     </row>
@@ -18295,19 +18986,19 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70740649491530516</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="32"/>
+        <v>6.1214400000000002E-2</v>
+      </c>
+      <c r="U125" s="6">
         <f t="shared" si="34"/>
-        <v>0.70740649491530516</v>
-      </c>
-      <c r="T125">
-        <f t="shared" si="33"/>
-        <v>6.1214400000000002E-2</v>
-      </c>
-      <c r="U125" s="6">
+        <v>7.4496562972642169</v>
+      </c>
+      <c r="V125">
         <f t="shared" si="35"/>
-        <v>7.4496562972642169</v>
-      </c>
-      <c r="V125">
-        <f t="shared" si="36"/>
         <v>3.98390415878487</v>
       </c>
     </row>
@@ -18319,19 +19010,19 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70624830809326333</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="32"/>
+        <v>6.2783999999999993E-2</v>
+      </c>
+      <c r="U126" s="6">
         <f t="shared" si="34"/>
-        <v>0.70624830809326333</v>
-      </c>
-      <c r="T126">
-        <f t="shared" si="33"/>
-        <v>6.2783999999999993E-2</v>
-      </c>
-      <c r="U126" s="6">
+        <v>7.4385588587263882</v>
+      </c>
+      <c r="V126">
         <f t="shared" si="35"/>
-        <v>7.4385588587263882</v>
-      </c>
-      <c r="V126">
-        <f t="shared" si="36"/>
         <v>3.9874583778536432</v>
       </c>
     </row>
@@ -18343,19 +19034,19 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70510312526409036</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="32"/>
+        <v>6.4353599999999997E-2</v>
+      </c>
+      <c r="U127" s="6">
         <f t="shared" si="34"/>
-        <v>0.70510312526409036</v>
-      </c>
-      <c r="T127">
-        <f t="shared" si="33"/>
-        <v>6.4353599999999997E-2</v>
-      </c>
-      <c r="U127" s="6">
+        <v>7.4274448393848909</v>
+      </c>
+      <c r="V127">
         <f t="shared" si="35"/>
-        <v>7.4274448393848909</v>
-      </c>
-      <c r="V127">
-        <f t="shared" si="36"/>
         <v>3.9908327648949204</v>
       </c>
     </row>
@@ -18367,19 +19058,19 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
+        <f t="shared" si="33"/>
+        <v>0.7039702286790146</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="32"/>
+        <v>6.5923199999999987E-2</v>
+      </c>
+      <c r="U128" s="6">
         <f t="shared" si="34"/>
-        <v>0.7039702286790146</v>
-      </c>
-      <c r="T128">
-        <f t="shared" si="33"/>
-        <v>6.5923199999999987E-2</v>
-      </c>
-      <c r="U128" s="6">
+        <v>7.4163141646962112</v>
+      </c>
+      <c r="V128">
         <f t="shared" si="35"/>
-        <v>7.4163141646962112</v>
-      </c>
-      <c r="V128">
-        <f t="shared" si="36"/>
         <v>3.9940322872707057</v>
       </c>
     </row>
@@ -18391,19 +19082,19 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70284916813562359</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="32"/>
+        <v>6.7492800000000006E-2</v>
+      </c>
+      <c r="U129" s="6">
         <f t="shared" si="34"/>
-        <v>0.70284916813562359</v>
-      </c>
-      <c r="T129">
-        <f t="shared" si="33"/>
-        <v>6.7492800000000006E-2</v>
-      </c>
-      <c r="U129" s="6">
+        <v>7.4051667595566064</v>
+      </c>
+      <c r="V129">
         <f t="shared" si="35"/>
-        <v>7.4051667595566064</v>
-      </c>
-      <c r="V129">
-        <f t="shared" si="36"/>
         <v>3.9970616540052064</v>
       </c>
     </row>
@@ -18415,19 +19106,19 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70174033651989831</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="32"/>
+        <v>6.906240000000001E-2</v>
+      </c>
+      <c r="U130" s="6">
         <f t="shared" si="34"/>
-        <v>0.70174033651989831</v>
-      </c>
-      <c r="T130">
-        <f t="shared" si="33"/>
-        <v>6.906240000000001E-2</v>
-      </c>
-      <c r="U130" s="6">
+        <v>7.3940025482961875</v>
+      </c>
+      <c r="V130">
         <f t="shared" si="35"/>
-        <v>7.3940025482961875</v>
-      </c>
-      <c r="V130">
-        <f t="shared" si="36"/>
         <v>3.999925334172922</v>
       </c>
     </row>
@@ -18439,19 +19130,19 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
+        <f t="shared" si="33"/>
+        <v>0.70064186887730906</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="32"/>
+        <v>7.0632E-2</v>
+      </c>
+      <c r="U131" s="6">
         <f t="shared" si="34"/>
-        <v>0.70064186887730906</v>
-      </c>
-      <c r="T131">
-        <f t="shared" si="33"/>
-        <v>7.0632E-2</v>
-      </c>
-      <c r="U131" s="6">
+        <v>7.3828214546729303</v>
+      </c>
+      <c r="V131">
         <f t="shared" si="35"/>
-        <v>7.3828214546729303</v>
-      </c>
-      <c r="V131">
-        <f t="shared" si="36"/>
         <v>4.0026275736113046</v>
       </c>
     </row>
@@ -18463,19 +19154,19 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69955390507326687</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="32"/>
+        <v>7.2201600000000005E-2</v>
+      </c>
+      <c r="U132" s="6">
         <f t="shared" si="34"/>
-        <v>0.69955390507326687</v>
-      </c>
-      <c r="T132">
-        <f t="shared" si="33"/>
-        <v>7.2201600000000005E-2</v>
-      </c>
-      <c r="U132" s="6">
+        <v>7.3716234018666036</v>
+      </c>
+      <c r="V132">
         <f t="shared" si="35"/>
-        <v>7.3716234018666036</v>
-      </c>
-      <c r="V132">
-        <f t="shared" si="36"/>
         <v>4.0051724101881483</v>
       </c>
     </row>
@@ -18487,19 +19178,19 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69847604757934878</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="32"/>
+        <v>7.3771199999999995E-2</v>
+      </c>
+      <c r="U133" s="6">
         <f t="shared" si="34"/>
-        <v>0.69847604757934878</v>
-      </c>
-      <c r="T133">
-        <f t="shared" si="33"/>
-        <v>7.3771199999999995E-2</v>
-      </c>
-      <c r="U133" s="6">
+        <v>7.3604083124726012</v>
+      </c>
+      <c r="V133">
         <f t="shared" si="35"/>
-        <v>7.3604083124726012</v>
-      </c>
-      <c r="V133">
-        <f t="shared" si="36"/>
         <v>4.007563687719828</v>
       </c>
     </row>
@@ -18511,19 +19202,19 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69740789393925806</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="32"/>
+        <v>7.5340799999999999E-2</v>
+      </c>
+      <c r="U134" s="6">
         <f t="shared" si="34"/>
-        <v>0.69740789393925806</v>
-      </c>
-      <c r="T134">
-        <f t="shared" si="33"/>
-        <v>7.5340799999999999E-2</v>
-      </c>
-      <c r="U134" s="6">
+        <v>7.3491761084957128</v>
+      </c>
+      <c r="V134">
         <f t="shared" si="35"/>
-        <v>7.3491761084957128</v>
-      </c>
-      <c r="V134">
-        <f t="shared" si="36"/>
         <v>4.009805068718209</v>
       </c>
     </row>
@@ -18535,19 +19226,19 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69634906030433319</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="32"/>
+        <v>7.6910400000000004E-2</v>
+      </c>
+      <c r="U135" s="6">
         <f t="shared" si="34"/>
-        <v>0.69634906030433319</v>
-      </c>
-      <c r="T135">
-        <f t="shared" si="33"/>
-        <v>7.6910400000000004E-2</v>
-      </c>
-      <c r="U135" s="6">
+        <v>7.3379267113437843</v>
+      </c>
+      <c r="V135">
         <f t="shared" si="35"/>
-        <v>7.3379267113437843</v>
-      </c>
-      <c r="V135">
-        <f t="shared" si="36"/>
         <v>4.0119000460724781</v>
       </c>
     </row>
@@ -18559,19 +19250,19 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69529920664589095</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="32"/>
+        <v>7.8479999999999994E-2</v>
+      </c>
+      <c r="U136" s="6">
         <f t="shared" si="34"/>
-        <v>0.69529920664589095</v>
-      </c>
-      <c r="T136">
-        <f t="shared" si="33"/>
-        <v>7.8479999999999994E-2</v>
-      </c>
-      <c r="U136" s="6">
+        <v>7.3266600418213095</v>
+      </c>
+      <c r="V136">
         <f t="shared" si="35"/>
-        <v>7.3266600418213095</v>
-      </c>
-      <c r="V136">
-        <f t="shared" si="36"/>
         <v>4.0138519537746067</v>
       </c>
     </row>
@@ -18583,19 +19274,19 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69425799384992126</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="32"/>
+        <v>8.0049599999999999E-2</v>
+      </c>
+      <c r="U137" s="6">
         <f t="shared" si="34"/>
-        <v>0.69425799384992126</v>
-      </c>
-      <c r="T137">
-        <f t="shared" si="33"/>
-        <v>8.0049599999999999E-2</v>
-      </c>
-      <c r="U137" s="6">
+        <v>7.3153760201229208</v>
+      </c>
+      <c r="V137">
         <f t="shared" si="35"/>
-        <v>7.3153760201229208</v>
-      </c>
-      <c r="V137">
-        <f t="shared" si="36"/>
         <v>4.0156639767825251</v>
       </c>
     </row>
@@ -18607,19 +19298,19 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
+        <f t="shared" si="33"/>
+        <v>0.6932250944116598</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="32"/>
+        <v>8.1619199999999989E-2</v>
+      </c>
+      <c r="U138" s="6">
         <f t="shared" si="34"/>
-        <v>0.6932250944116598</v>
-      </c>
-      <c r="T138">
-        <f t="shared" si="33"/>
-        <v>8.1619199999999989E-2</v>
-      </c>
-      <c r="U138" s="6">
+        <v>7.3040745658267943</v>
+      </c>
+      <c r="V138">
         <f t="shared" si="35"/>
-        <v>7.3040745658267943</v>
-      </c>
-      <c r="V138">
-        <f t="shared" si="36"/>
         <v>4.0173391601043527</v>
       </c>
     </row>
@@ -18631,19 +19322,19 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69220020742824595</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="32"/>
+        <v>8.3188799999999993E-2</v>
+      </c>
+      <c r="U139" s="6">
         <f t="shared" si="34"/>
-        <v>0.69220020742824595</v>
-      </c>
-      <c r="T139">
-        <f t="shared" si="33"/>
-        <v>8.3188799999999993E-2</v>
-      </c>
-      <c r="U139" s="6">
+        <v>7.2927555978879681</v>
+      </c>
+      <c r="V139">
         <f t="shared" si="35"/>
-        <v>7.2927555978879681</v>
-      </c>
-      <c r="V139">
-        <f t="shared" si="36"/>
         <v>4.0188804171776837</v>
       </c>
     </row>
@@ -18655,19 +19346,19 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
+        <f t="shared" si="33"/>
+        <v>0.69118304019401799</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="32"/>
+        <v>8.4758400000000012E-2</v>
+      </c>
+      <c r="U140" s="6">
         <f t="shared" si="34"/>
-        <v>0.69118304019401799</v>
-      </c>
-      <c r="T140">
-        <f t="shared" si="33"/>
-        <v>8.4758400000000012E-2</v>
-      </c>
-      <c r="U140" s="6">
+        <v>7.2814190346315542</v>
+      </c>
+      <c r="V140">
         <f t="shared" si="35"/>
-        <v>7.2814190346315542</v>
-      </c>
-      <c r="V140">
-        <f t="shared" si="36"/>
         <v>4.0202905376096911</v>
       </c>
     </row>
@@ -18679,19 +19370,19 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
+        <f t="shared" si="33"/>
+        <v>0.6901733223135007</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="32"/>
+        <v>8.6328000000000002E-2</v>
+      </c>
+      <c r="U141" s="6">
         <f t="shared" si="34"/>
-        <v>0.6901733223135007</v>
-      </c>
-      <c r="T141">
-        <f t="shared" si="33"/>
-        <v>8.6328000000000002E-2</v>
-      </c>
-      <c r="U141" s="6">
+        <v>7.2700647937458678</v>
+      </c>
+      <c r="V141">
         <f t="shared" si="35"/>
-        <v>7.2700647937458678</v>
-      </c>
-      <c r="V141">
-        <f t="shared" si="36"/>
         <v>4.0215721943367519</v>
       </c>
     </row>
@@ -18703,19 +19394,19 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68917078259865228</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="32"/>
+        <v>8.7897600000000006E-2</v>
+      </c>
+      <c r="U142" s="6">
         <f t="shared" si="34"/>
-        <v>0.68917078259865228</v>
-      </c>
-      <c r="T142">
-        <f t="shared" si="33"/>
-        <v>8.7897600000000006E-2</v>
-      </c>
-      <c r="U142" s="6">
+        <v>7.2586927922754487</v>
+      </c>
+      <c r="V142">
         <f t="shared" si="35"/>
-        <v>7.2586927922754487</v>
-      </c>
-      <c r="V142">
-        <f t="shared" si="36"/>
         <v>4.0227279502559661</v>
       </c>
     </row>
@@ -18727,19 +19418,19 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68817517052727328</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="32"/>
+        <v>8.9467200000000011E-2</v>
+      </c>
+      <c r="U143" s="6">
         <f t="shared" si="34"/>
-        <v>0.68817517052727328</v>
-      </c>
-      <c r="T143">
-        <f t="shared" si="33"/>
-        <v>8.9467200000000011E-2</v>
-      </c>
-      <c r="U143" s="6">
+        <v>7.2473029466140009</v>
+      </c>
+      <c r="V143">
         <f t="shared" si="35"/>
-        <v>7.2473029466140009</v>
-      </c>
-      <c r="V143">
-        <f t="shared" si="36"/>
         <v>4.0237602643754844</v>
       </c>
     </row>
@@ -18751,19 +19442,19 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68718624324408784</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="32"/>
+        <v>9.1036800000000001E-2</v>
+      </c>
+      <c r="U144" s="6">
         <f t="shared" si="34"/>
-        <v>0.68718624324408784</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="33"/>
-        <v>9.1036800000000001E-2</v>
-      </c>
-      <c r="U144" s="6">
+        <v>7.2358951724972078</v>
+      </c>
+      <c r="V144">
         <f t="shared" si="35"/>
-        <v>7.2358951724972078</v>
-      </c>
-      <c r="V144">
-        <f t="shared" si="36"/>
         <v>4.0246714975256506</v>
       </c>
     </row>
@@ -18775,19 +19466,19 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68620377300777524</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="32"/>
+        <v>9.2606400000000005E-2</v>
+      </c>
+      <c r="U145" s="6">
         <f t="shared" si="34"/>
-        <v>0.68620377300777524</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="33"/>
-        <v>9.2606400000000005E-2</v>
-      </c>
-      <c r="U145" s="6">
+        <v>7.2244693849954702</v>
+      </c>
+      <c r="V145">
         <f t="shared" si="35"/>
-        <v>7.2244693849954702</v>
-      </c>
-      <c r="V145">
-        <f t="shared" si="36"/>
         <v>4.025463917668783</v>
       </c>
     </row>
@@ -18799,19 +19490,19 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68522753343094756</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="32"/>
+        <v>9.4175999999999996E-2</v>
+      </c>
+      <c r="U146" s="6">
         <f t="shared" si="34"/>
-        <v>0.68522753343094756</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="33"/>
-        <v>9.4175999999999996E-2</v>
-      </c>
-      <c r="U146" s="6">
+        <v>7.2130254985065205</v>
+      </c>
+      <c r="V146">
         <f t="shared" si="35"/>
-        <v>7.2130254985065205</v>
-      </c>
-      <c r="V146">
-        <f t="shared" si="36"/>
         <v>4.0261397048415084</v>
       </c>
     </row>
@@ -18823,19 +19514,19 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68425731602477413</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="32"/>
+        <v>9.57456E-2</v>
+      </c>
+      <c r="U147" s="6">
         <f t="shared" si="34"/>
-        <v>0.68425731602477413</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="33"/>
-        <v>9.57456E-2</v>
-      </c>
-      <c r="U147" s="6">
+        <v>7.2015634267479491</v>
+      </c>
+      <c r="V147">
         <f t="shared" si="35"/>
-        <v>7.2015634267479491</v>
-      </c>
-      <c r="V147">
-        <f t="shared" si="36"/>
         <v>4.0267009557603552</v>
       </c>
     </row>
@@ -18847,19 +19538,19 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68329291418435478</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="32"/>
+        <v>9.7315200000000004E-2</v>
+      </c>
+      <c r="U148" s="6">
         <f t="shared" si="34"/>
-        <v>0.68329291418435478</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="33"/>
-        <v>9.7315200000000004E-2</v>
-      </c>
-      <c r="U148" s="6">
+        <v>7.1900830827496067</v>
+      </c>
+      <c r="V148">
         <f t="shared" si="35"/>
-        <v>7.1900830827496067</v>
-      </c>
-      <c r="V148">
-        <f t="shared" si="36"/>
         <v>4.0271496881181745</v>
       </c>
     </row>
@@ -18871,19 +19562,19 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68233413281833633</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="32"/>
+        <v>9.8884799999999995E-2</v>
+      </c>
+      <c r="U149" s="6">
         <f t="shared" si="34"/>
-        <v>0.68233413281833633</v>
-      </c>
-      <c r="T149">
-        <f t="shared" si="33"/>
-        <v>9.8884799999999995E-2</v>
-      </c>
-      <c r="U149" s="6">
+        <v>7.1785843788459092</v>
+      </c>
+      <c r="V149">
         <f t="shared" si="35"/>
-        <v>7.1785843788459092</v>
-      </c>
-      <c r="V149">
-        <f t="shared" si="36"/>
         <v>4.0274878445964806</v>
       </c>
     </row>
@@ -18895,19 +19586,19 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68727035651049118</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="32"/>
+        <v>0.1004544</v>
+      </c>
+      <c r="U150" s="6">
         <f t="shared" si="34"/>
-        <v>0.68727035651049118</v>
-      </c>
-      <c r="T150">
-        <f t="shared" si="33"/>
-        <v>0.1004544</v>
-      </c>
-      <c r="U150" s="6">
+        <v>7.1670672266680278</v>
+      </c>
+      <c r="V150">
         <f t="shared" si="35"/>
-        <v>7.1670672266680278</v>
-      </c>
-      <c r="V150">
-        <f t="shared" si="36"/>
         <v>4.027511652365054</v>
       </c>
     </row>
@@ -18919,19 +19610,19 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
+        <f t="shared" si="33"/>
+        <v>0.68043268612994623</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="32"/>
+        <v>0.10202399999999999</v>
+      </c>
+      <c r="U151" s="6">
         <f t="shared" si="34"/>
-        <v>0.68043268612994623</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="33"/>
-        <v>0.10202399999999999</v>
-      </c>
-      <c r="U151" s="6">
+        <v>7.1555315371359622</v>
+      </c>
+      <c r="V151">
         <f t="shared" si="35"/>
-        <v>7.1555315371359622</v>
-      </c>
-      <c r="V151">
-        <f t="shared" si="36"/>
         <v>4.0278398478480364</v>
       </c>
     </row>
@@ -18944,20 +19635,20 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.10359360000000001</v>
       </c>
       <c r="U152" s="7">
+        <f t="shared" si="34"/>
+        <v>7.1439772204505081</v>
+      </c>
+      <c r="V152" s="8">
         <f t="shared" si="35"/>
-        <v>7.1439772204505081</v>
-      </c>
-      <c r="V152" s="8">
-        <f t="shared" si="36"/>
         <v>4.0278572374992159</v>
       </c>
       <c r="W152" s="9"/>
@@ -18973,19 +19664,19 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67855155500822006</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="32"/>
+        <v>0.10516320000000001</v>
+      </c>
+      <c r="U153" s="6">
         <f t="shared" si="34"/>
-        <v>0.67855155500822006</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="33"/>
-        <v>0.10516320000000001</v>
-      </c>
-      <c r="U153" s="6">
+        <v>7.1324041860850951</v>
+      </c>
+      <c r="V153">
         <f t="shared" si="35"/>
-        <v>7.1324041860850951</v>
-      </c>
-      <c r="V153">
-        <f t="shared" si="36"/>
         <v>4.0277711433967136</v>
       </c>
     </row>
@@ -18997,19 +19688,19 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
+        <f t="shared" si="33"/>
+        <v>0.68428073843441362</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="32"/>
+        <v>0.1067328</v>
+      </c>
+      <c r="U154" s="6">
         <f t="shared" si="34"/>
-        <v>0.68428073843441362</v>
-      </c>
-      <c r="T154">
-        <f t="shared" si="33"/>
-        <v>0.1067328</v>
-      </c>
-      <c r="U154" s="6">
+        <v>7.1208123427775156</v>
+      </c>
+      <c r="V154">
         <f t="shared" si="35"/>
-        <v>7.1208123427775156</v>
-      </c>
-      <c r="V154">
-        <f t="shared" si="36"/>
         <v>4.0273226382088803</v>
       </c>
     </row>
@@ -19021,19 +19712,19 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
+        <f t="shared" si="33"/>
+        <v>0.68355063366352597</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="32"/>
+        <v>0.10830240000000001</v>
+      </c>
+      <c r="U155" s="6">
         <f t="shared" si="34"/>
-        <v>0.68355063366352597</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="33"/>
-        <v>0.10830240000000001</v>
-      </c>
-      <c r="U155" s="6">
+        <v>7.1092015985215271</v>
+      </c>
+      <c r="V155">
         <f t="shared" si="35"/>
-        <v>7.1092015985215271</v>
-      </c>
-      <c r="V155">
-        <f t="shared" si="36"/>
         <v>4.0270193062779231</v>
       </c>
     </row>
@@ -19045,19 +19736,19 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
+        <f t="shared" si="33"/>
+        <v>0.68282708190946328</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="32"/>
+        <v>0.109872</v>
+      </c>
+      <c r="U156" s="6">
         <f t="shared" si="34"/>
-        <v>0.68282708190946328</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="33"/>
-        <v>0.109872</v>
-      </c>
-      <c r="U156" s="6">
+        <v>7.0975718605583316</v>
+      </c>
+      <c r="V156">
         <f t="shared" si="35"/>
-        <v>7.0975718605583316</v>
-      </c>
-      <c r="V156">
-        <f t="shared" si="36"/>
         <v>4.0266166295080223</v>
       </c>
     </row>
@@ -19069,19 +19760,19 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
+        <f t="shared" si="33"/>
+        <v>0.68211023195537945</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="32"/>
+        <v>0.1114416</v>
+      </c>
+      <c r="U157" s="6">
         <f t="shared" si="34"/>
-        <v>0.68211023195537945</v>
-      </c>
-      <c r="T157">
-        <f t="shared" si="33"/>
-        <v>0.1114416</v>
-      </c>
-      <c r="U157" s="6">
+        <v>7.085923035367931</v>
+      </c>
+      <c r="V157">
         <f t="shared" si="35"/>
-        <v>7.085923035367931</v>
-      </c>
-      <c r="V157">
-        <f t="shared" si="36"/>
         <v>4.0261160327561116</v>
       </c>
     </row>
@@ -19093,19 +19784,19 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
+        <f t="shared" si="33"/>
+        <v>0.68139963958787475</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="32"/>
+        <v>0.11301120000000001</v>
+      </c>
+      <c r="U158" s="6">
         <f t="shared" si="34"/>
-        <v>0.68139963958787475</v>
-      </c>
-      <c r="T158">
-        <f t="shared" si="33"/>
-        <v>0.11301120000000001</v>
-      </c>
-      <c r="U158" s="6">
+        <v>7.0742550286603532</v>
+      </c>
+      <c r="V158">
         <f t="shared" si="35"/>
-        <v>7.0742550286603532</v>
-      </c>
-      <c r="V158">
-        <f t="shared" si="36"/>
         <v>4.0255189417085298</v>
       </c>
     </row>
@@ -19117,19 +19808,19 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
+        <f t="shared" si="33"/>
+        <v>0.68069526935862046</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="32"/>
+        <v>0.1145808</v>
+      </c>
+      <c r="U159" s="6">
         <f t="shared" si="34"/>
-        <v>0.68069526935862046</v>
-      </c>
-      <c r="T159">
-        <f t="shared" si="33"/>
-        <v>0.1145808</v>
-      </c>
-      <c r="U159" s="6">
+        <v>7.0625677453667457</v>
+      </c>
+      <c r="V159">
         <f t="shared" si="35"/>
-        <v>7.0625677453667457</v>
-      </c>
-      <c r="V159">
-        <f t="shared" si="36"/>
         <v>4.0248267022987143</v>
       </c>
     </row>
@@ -19141,19 +19832,19 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67999698441242451</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="32"/>
+        <v>0.1161504</v>
+      </c>
+      <c r="U160" s="6">
         <f t="shared" si="34"/>
-        <v>0.67999698441242451</v>
-      </c>
-      <c r="T160">
-        <f t="shared" si="33"/>
-        <v>0.1161504</v>
-      </c>
-      <c r="U160" s="6">
+        <v>7.0508610896303399</v>
+      </c>
+      <c r="V160">
         <f t="shared" si="35"/>
-        <v>7.0508610896303399</v>
-      </c>
-      <c r="V160">
-        <f t="shared" si="36"/>
         <v>4.0240406248404064</v>
       </c>
     </row>
@@ -19165,19 +19856,19 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67930465306726673</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="32"/>
+        <v>0.11771999999999999</v>
+      </c>
+      <c r="U161" s="6">
         <f t="shared" si="34"/>
-        <v>0.67930465306726673</v>
-      </c>
-      <c r="T161">
-        <f t="shared" si="33"/>
-        <v>0.11771999999999999</v>
-      </c>
-      <c r="U161" s="6">
+        <v>7.0391349647972765</v>
+      </c>
+      <c r="V161">
         <f t="shared" si="35"/>
-        <v>7.0391349647972765</v>
-      </c>
-      <c r="V161">
-        <f t="shared" si="36"/>
         <v>4.0231619771053682</v>
       </c>
     </row>
@@ -19189,19 +19880,19 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67861815838962392</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="32"/>
+        <v>0.1192896</v>
+      </c>
+      <c r="U162" s="6">
         <f t="shared" si="34"/>
-        <v>0.67861815838962392</v>
-      </c>
-      <c r="T162">
-        <f t="shared" si="33"/>
-        <v>0.1192896</v>
-      </c>
-      <c r="U162" s="6">
+        <v>7.0273892734072998</v>
+      </c>
+      <c r="V162">
         <f t="shared" si="35"/>
-        <v>7.0273892734072998</v>
-      </c>
-      <c r="V162">
-        <f t="shared" si="36"/>
         <v>4.0221919851724746</v>
       </c>
     </row>
@@ -19213,19 +19904,19 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67793737140207588</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="32"/>
+        <v>0.1208592</v>
+      </c>
+      <c r="U163" s="6">
         <f t="shared" si="34"/>
-        <v>0.67793737140207588</v>
-      </c>
-      <c r="T163">
-        <f t="shared" si="33"/>
-        <v>0.1208592</v>
-      </c>
-      <c r="U163" s="6">
+        <v>7.0156239171843016</v>
+      </c>
+      <c r="V163">
         <f t="shared" si="35"/>
-        <v>7.0156239171843016</v>
-      </c>
-      <c r="V163">
-        <f t="shared" si="36"/>
         <v>4.0211318376084915</v>
       </c>
     </row>
@@ -19237,19 +19928,19 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67726218372984481</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="32"/>
+        <v>0.1224288</v>
+      </c>
+      <c r="U164" s="6">
         <f t="shared" si="34"/>
-        <v>0.67726218372984481</v>
-      </c>
-      <c r="T164">
-        <f t="shared" si="33"/>
-        <v>0.1224288</v>
-      </c>
-      <c r="U164" s="6">
+        <v>7.0038387970267291</v>
+      </c>
+      <c r="V164">
         <f t="shared" si="35"/>
-        <v>7.0038387970267291</v>
-      </c>
-      <c r="V164">
-        <f t="shared" si="36"/>
         <v>4.0199826839625361</v>
       </c>
     </row>
@@ -19261,19 +19952,19 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67659248059228527</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="32"/>
+        <v>0.12399840000000001</v>
+      </c>
+      <c r="U165" s="6">
         <f t="shared" si="34"/>
-        <v>0.67659248059228527</v>
-      </c>
-      <c r="T165">
-        <f t="shared" si="33"/>
-        <v>0.12399840000000001</v>
-      </c>
-      <c r="U165" s="6">
+        <v>6.9920338129978488</v>
+      </c>
+      <c r="V165">
         <f t="shared" si="35"/>
-        <v>6.9920338129978488</v>
-      </c>
-      <c r="V165">
-        <f t="shared" si="36"/>
         <v>4.0187456388423515</v>
       </c>
     </row>
@@ -19285,19 +19976,19 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67592815043108834</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="32"/>
+        <v>0.12556799999999999</v>
+      </c>
+      <c r="U166" s="6">
         <f t="shared" si="34"/>
-        <v>0.67592815043108834</v>
-      </c>
-      <c r="T166">
-        <f t="shared" si="33"/>
-        <v>0.12556799999999999</v>
-      </c>
-      <c r="U166" s="6">
+        <v>6.9802088643158564</v>
+      </c>
+      <c r="V166">
         <f t="shared" si="35"/>
-        <v>6.9802088643158564</v>
-      </c>
-      <c r="V166">
-        <f t="shared" si="36"/>
         <v>4.0174217824391105</v>
       </c>
     </row>
@@ -19309,19 +20000,19 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67526908697557564</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="32"/>
+        <v>0.12713759999999999</v>
+      </c>
+      <c r="U167" s="6">
         <f t="shared" si="34"/>
-        <v>0.67526908697557564</v>
-      </c>
-      <c r="T167">
-        <f t="shared" si="33"/>
-        <v>0.12713759999999999</v>
-      </c>
-      <c r="U167" s="6">
+        <v>6.9683638493438389</v>
+      </c>
+      <c r="V167">
         <f t="shared" si="35"/>
-        <v>6.9683638493438389</v>
-      </c>
-      <c r="V167">
-        <f t="shared" si="36"/>
         <v>4.016012161654622</v>
       </c>
     </row>
@@ -19333,19 +20024,19 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67461518967549727</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="32"/>
+        <v>0.12870719999999999</v>
+      </c>
+      <c r="U168" s="6">
         <f t="shared" si="34"/>
-        <v>0.67461518967549727</v>
-      </c>
-      <c r="T168">
-        <f t="shared" si="33"/>
-        <v>0.12870719999999999</v>
-      </c>
-      <c r="U168" s="6">
+        <v>6.9564986655795815</v>
+      </c>
+      <c r="V168">
         <f t="shared" si="35"/>
-        <v>6.9564986655795815</v>
-      </c>
-      <c r="V168">
-        <f t="shared" si="36"/>
         <v>4.0145177913068455</v>
       </c>
     </row>
@@ -19357,19 +20048,19 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
+        <f t="shared" si="33"/>
+        <v>0.67396636023285905</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="32"/>
+        <v>0.1302768</v>
+      </c>
+      <c r="U169" s="6">
         <f t="shared" si="34"/>
-        <v>0.67396636023285905</v>
-      </c>
-      <c r="T169">
-        <f t="shared" si="33"/>
-        <v>0.1302768</v>
-      </c>
-      <c r="U169" s="6">
+        <v>6.9446132096452233</v>
+      </c>
+      <c r="V169">
         <f t="shared" si="35"/>
-        <v>6.9446132096452233</v>
-      </c>
-      <c r="V169">
-        <f t="shared" si="36"/>
         <v>4.0129396556970267</v>
       </c>
     </row>
@@ -19381,19 +20072,19 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
+        <f t="shared" si="33"/>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="32"/>
+        <v>0.13184639999999997</v>
+      </c>
+      <c r="U170" s="6">
         <f t="shared" si="34"/>
-        <v>1.3788101090755203</v>
-      </c>
-      <c r="T170">
-        <f t="shared" si="33"/>
-        <v>0.13184639999999997</v>
-      </c>
-      <c r="U170" s="6">
+        <v>6.9327073772767411</v>
+      </c>
+      <c r="V170">
         <f t="shared" si="35"/>
-        <v>6.9327073772767411</v>
-      </c>
-      <c r="V170">
-        <f t="shared" si="36"/>
         <v>1.3267525867662506</v>
       </c>
     </row>
@@ -19405,19 +20096,19 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="37">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="36">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="38">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U171:U186" si="37">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
         <v>6.9207810633132851</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="39">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <f t="shared" ref="V171:V186" si="38">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
         <v>1.2087144887313723</v>
       </c>
     </row>
@@ -19429,19 +20120,19 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="40">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="39">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
+        <f t="shared" si="36"/>
+        <v>0.13498560000000001</v>
+      </c>
+      <c r="U172" s="6">
         <f t="shared" si="37"/>
-        <v>0.13498560000000001</v>
-      </c>
-      <c r="U172" s="6">
+        <v>6.9088341616863396</v>
+      </c>
+      <c r="V172">
         <f t="shared" si="38"/>
-        <v>6.9088341616863396</v>
-      </c>
-      <c r="V172">
-        <f t="shared" si="39"/>
         <v>1.0897801217781078</v>
       </c>
     </row>
@@ -19453,19 +20144,19 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.4311699866353502</v>
       </c>
       <c r="T173">
+        <f t="shared" si="36"/>
+        <v>0.13655520000000002</v>
+      </c>
+      <c r="U173" s="6">
         <f t="shared" si="37"/>
-        <v>0.13655520000000002</v>
-      </c>
-      <c r="U173" s="6">
+        <v>6.8968665654087156</v>
+      </c>
+      <c r="V173">
         <f t="shared" si="38"/>
-        <v>6.8968665654087156</v>
-      </c>
-      <c r="V173">
-        <f t="shared" si="39"/>
         <v>0.97007719953509874</v>
       </c>
     </row>
@@ -19477,19 +20168,19 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.4486232791552935</v>
       </c>
       <c r="T174">
+        <f t="shared" si="36"/>
+        <v>0.13812480000000002</v>
+      </c>
+      <c r="U174" s="6">
         <f t="shared" si="37"/>
-        <v>0.13812480000000002</v>
-      </c>
-      <c r="U174" s="6">
+        <v>6.8848781665633725</v>
+      </c>
+      <c r="V174">
         <f t="shared" si="38"/>
-        <v>6.8848781665633725</v>
-      </c>
-      <c r="V174">
-        <f t="shared" si="39"/>
         <v>0.84973331030319721</v>
       </c>
     </row>
@@ -19501,19 +20192,19 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.4660765716752369</v>
       </c>
       <c r="T175">
+        <f t="shared" si="36"/>
+        <v>0.1396944</v>
+      </c>
+      <c r="U175" s="6">
         <f t="shared" si="37"/>
-        <v>0.1396944</v>
-      </c>
-      <c r="U175" s="6">
+        <v>6.8728688562920688</v>
+      </c>
+      <c r="V175">
         <f t="shared" si="38"/>
-        <v>6.8728688562920688</v>
-      </c>
-      <c r="V175">
-        <f t="shared" si="39"/>
         <v>0.72887576386748687</v>
       </c>
     </row>
@@ -19525,19 +20216,19 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.48352986419518</v>
       </c>
       <c r="T176">
+        <f t="shared" si="36"/>
+        <v>0.141264</v>
+      </c>
+      <c r="U176" s="6">
         <f t="shared" si="37"/>
-        <v>0.141264</v>
-      </c>
-      <c r="U176" s="6">
+        <v>6.8608385247838237</v>
+      </c>
+      <c r="V176">
         <f t="shared" si="38"/>
-        <v>6.8608385247838237</v>
-      </c>
-      <c r="V176">
-        <f t="shared" si="39"/>
         <v>0.60763143960480015</v>
       </c>
     </row>
@@ -19549,19 +20240,19 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5009831567151235</v>
       </c>
       <c r="T177">
+        <f t="shared" si="36"/>
+        <v>0.14283360000000001</v>
+      </c>
+      <c r="U177" s="6">
         <f t="shared" si="37"/>
-        <v>0.14283360000000001</v>
-      </c>
-      <c r="U177" s="6">
+        <v>6.8487870612632058</v>
+      </c>
+      <c r="V177">
         <f t="shared" si="38"/>
-        <v>6.8487870612632058</v>
-      </c>
-      <c r="V177">
-        <f t="shared" si="39"/>
         <v>0.48612663608815204</v>
       </c>
     </row>
@@ -19573,19 +20264,19 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5184364492350666</v>
       </c>
       <c r="T178">
+        <f t="shared" si="36"/>
+        <v>0.14440320000000001</v>
+      </c>
+      <c r="U178" s="6">
         <f t="shared" si="37"/>
-        <v>0.14440320000000001</v>
-      </c>
-      <c r="U178" s="6">
+        <v>6.8367143539784312</v>
+      </c>
+      <c r="V178">
         <f t="shared" si="38"/>
-        <v>6.8367143539784312</v>
-      </c>
-      <c r="V178">
-        <f t="shared" si="39"/>
         <v>0.36448692238617619</v>
       </c>
     </row>
@@ -19597,19 +20288,19 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5358897417550099</v>
       </c>
       <c r="T179">
+        <f t="shared" si="36"/>
+        <v>0.14597280000000001</v>
+      </c>
+      <c r="U179" s="6">
         <f t="shared" si="37"/>
-        <v>0.14597280000000001</v>
-      </c>
-      <c r="U179" s="6">
+        <v>6.8246202901892747</v>
+      </c>
+      <c r="V179">
         <f t="shared" si="38"/>
-        <v>6.8246202901892747</v>
-      </c>
-      <c r="V179">
-        <f t="shared" si="39"/>
         <v>0.24283699125191599</v>
       </c>
     </row>
@@ -19621,19 +20312,19 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5533430342749532</v>
       </c>
       <c r="T180">
+        <f t="shared" si="36"/>
+        <v>0.14754239999999999</v>
+      </c>
+      <c r="U180" s="6">
         <f t="shared" si="37"/>
-        <v>0.14754239999999999</v>
-      </c>
-      <c r="U180" s="6">
+        <v>6.8125047561547847</v>
+      </c>
+      <c r="V180">
         <f t="shared" si="38"/>
-        <v>6.8125047561547847</v>
-      </c>
-      <c r="V180">
-        <f t="shared" si="39"/>
         <v>0.1213005143916261</v>
       </c>
     </row>
@@ -19645,19 +20336,19 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="T181">
+        <f t="shared" si="36"/>
+        <v>0.14911199999999999</v>
+      </c>
+      <c r="U181" s="6">
         <f t="shared" si="37"/>
-        <v>0.14911199999999999</v>
-      </c>
-      <c r="U181" s="6">
+        <v>6.8003676371208028</v>
+      </c>
+      <c r="V181">
         <f t="shared" si="38"/>
-        <v>6.8003676371208028</v>
-      </c>
-      <c r="V181">
-        <f t="shared" si="39"/>
         <v>4.2518325304548242E-16</v>
       </c>
     </row>
@@ -19669,19 +20360,19 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5882496193148399</v>
       </c>
       <c r="T182">
+        <f t="shared" si="36"/>
+        <v>0.1506816</v>
+      </c>
+      <c r="U182" s="6">
         <f t="shared" si="37"/>
-        <v>0.1506816</v>
-      </c>
-      <c r="U182" s="6">
+        <v>6.7882088173072876</v>
+      </c>
+      <c r="V182">
         <f t="shared" si="38"/>
-        <v>6.7882088173072876</v>
-      </c>
-      <c r="V182">
-        <f t="shared" si="39"/>
         <v>-0.12094334725596025</v>
       </c>
     </row>
@@ -19693,19 +20384,19 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.605702911834783</v>
       </c>
       <c r="T183">
+        <f t="shared" si="36"/>
+        <v>0.1522512</v>
+      </c>
+      <c r="U183" s="6">
         <f t="shared" si="37"/>
-        <v>0.1522512</v>
-      </c>
-      <c r="U183" s="6">
+        <v>6.7760281798954187</v>
+      </c>
+      <c r="V183">
         <f t="shared" si="38"/>
-        <v>6.7760281798954187</v>
-      </c>
-      <c r="V183">
-        <f t="shared" si="39"/>
         <v>-0.2414097636268028</v>
       </c>
     </row>
@@ -19717,19 +20408,19 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.6231562043547265</v>
       </c>
       <c r="T184">
+        <f t="shared" si="36"/>
+        <v>0.15382080000000001</v>
+      </c>
+      <c r="U184" s="6">
         <f t="shared" si="37"/>
-        <v>0.15382080000000001</v>
-      </c>
-      <c r="U184" s="6">
+        <v>6.7638256070145131</v>
+      </c>
+      <c r="V184">
         <f t="shared" si="38"/>
-        <v>6.7638256070145131</v>
-      </c>
-      <c r="V184">
-        <f t="shared" si="39"/>
         <v>-0.36128106087130518</v>
       </c>
     </row>
@@ -19741,19 +20432,19 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.6406094968746698</v>
       </c>
       <c r="T185">
+        <f t="shared" si="36"/>
+        <v>0.15539039999999998</v>
+      </c>
+      <c r="U185" s="6">
         <f t="shared" si="37"/>
-        <v>0.15539039999999998</v>
-      </c>
-      <c r="U185" s="6">
+        <v>6.7516009797287087</v>
+      </c>
+      <c r="V185">
         <f t="shared" si="38"/>
-        <v>6.7516009797287087</v>
-      </c>
-      <c r="V185">
-        <f t="shared" si="39"/>
         <v>-0.4804407578800044</v>
       </c>
     </row>
@@ -19765,33 +20456,35 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.64951687336147113</v>
       </c>
       <c r="T186">
+        <f t="shared" si="36"/>
+        <v>0.15695999999999999</v>
+      </c>
+      <c r="U186" s="5">
         <f t="shared" si="37"/>
-        <v>0.15695999999999999</v>
-      </c>
-      <c r="U186" s="5">
+        <v>6.7393541780234463</v>
+      </c>
+      <c r="V186">
         <f t="shared" si="38"/>
-        <v>6.7393541780234463</v>
-      </c>
-      <c r="V186">
-        <f t="shared" si="39"/>
         <v>3.9751938924073293</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AH35:AH36"/>
     <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AI37:AI38"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AG6:AG7"/>
     <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="AH35:AH36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
